--- a/0929_covid_df_merge/data/2021-09-30_merged_continent_.xlsx
+++ b/0929_covid_df_merge/data/2021-09-30_merged_continent_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jypark\Desktop\Studying\KDT_ML\210929_covid_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D62472E-E5A1-4197-AF30-5415E447E388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE29EA19-77D6-4137-A64D-D60E5595B7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8070" yWindow="660" windowWidth="25000" windowHeight="14590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1070" yWindow="0" windowWidth="25000" windowHeight="14590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="766">
   <si>
     <t>한글표기</t>
   </si>
@@ -67,7 +67,7 @@
     <t>en_code</t>
   </si>
   <si>
-    <t>Enough_percent_people:</t>
+    <t>백신보유량</t>
   </si>
   <si>
     <t>1차접종</t>
@@ -676,10 +676,10 @@
     <t>28351</t>
   </si>
   <si>
-    <t>76780</t>
-  </si>
-  <si>
-    <t>23140</t>
+    <t>76812</t>
+  </si>
+  <si>
+    <t>23270</t>
   </si>
   <si>
     <t>55412</t>
@@ -712,7 +712,7 @@
     <t>9442</t>
   </si>
   <si>
-    <t>147567</t>
+    <t>147791</t>
   </si>
   <si>
     <t>5637</t>
@@ -754,7 +754,7 @@
     <t>8007</t>
   </si>
   <si>
-    <t>82280</t>
+    <t>82507</t>
   </si>
   <si>
     <t>59763</t>
@@ -802,7 +802,7 @@
     <t>96382</t>
   </si>
   <si>
-    <t>75294</t>
+    <t>75556</t>
   </si>
   <si>
     <t>98186</t>
@@ -826,7 +826,7 @@
     <t>49375</t>
   </si>
   <si>
-    <t>121173</t>
+    <t>121840</t>
   </si>
   <si>
     <t>59479</t>
@@ -838,7 +838,7 @@
     <t>92757</t>
   </si>
   <si>
-    <t>140617</t>
+    <t>141112</t>
   </si>
   <si>
     <t>72593</t>
@@ -877,7 +877,7 @@
     <t>83280</t>
   </si>
   <si>
-    <t>117199</t>
+    <t>117793</t>
   </si>
   <si>
     <t>4820</t>
@@ -961,7 +961,7 @@
     <t>3064</t>
   </si>
   <si>
-    <t>3228</t>
+    <t>3278</t>
   </si>
   <si>
     <t>53361</t>
@@ -1465,819 +1465,6 @@
     <t>198414</t>
   </si>
   <si>
-    <t>711,222</t>
-  </si>
-  <si>
-    <t>447,828</t>
-  </si>
-  <si>
-    <t>595,520</t>
-  </si>
-  <si>
-    <t>136,375</t>
-  </si>
-  <si>
-    <t>63,611</t>
-  </si>
-  <si>
-    <t>116,615</t>
-  </si>
-  <si>
-    <t>120,160</t>
-  </si>
-  <si>
-    <t>115,038</t>
-  </si>
-  <si>
-    <t>126,219</t>
-  </si>
-  <si>
-    <t>86,358</t>
-  </si>
-  <si>
-    <t>130,807</t>
-  </si>
-  <si>
-    <t>94,140</t>
-  </si>
-  <si>
-    <t>141,826</t>
-  </si>
-  <si>
-    <t>276,376</t>
-  </si>
-  <si>
-    <t>75,623</t>
-  </si>
-  <si>
-    <t>38,164</t>
-  </si>
-  <si>
-    <t>56,080</t>
-  </si>
-  <si>
-    <t>25,935</t>
-  </si>
-  <si>
-    <t>199,329</t>
-  </si>
-  <si>
-    <t>18,168</t>
-  </si>
-  <si>
-    <t>22,221</t>
-  </si>
-  <si>
-    <t>17,625</t>
-  </si>
-  <si>
-    <t>37,455</t>
-  </si>
-  <si>
-    <t>27,754</t>
-  </si>
-  <si>
-    <t>16,620</t>
-  </si>
-  <si>
-    <t>27,487</t>
-  </si>
-  <si>
-    <t>7,692</t>
-  </si>
-  <si>
-    <t>27,690</t>
-  </si>
-  <si>
-    <t>25,581</t>
-  </si>
-  <si>
-    <t>36,865</t>
-  </si>
-  <si>
-    <t>14,814</t>
-  </si>
-  <si>
-    <t>8,187</t>
-  </si>
-  <si>
-    <t>14,225</t>
-  </si>
-  <si>
-    <t>11,142</t>
-  </si>
-  <si>
-    <t>7,378</t>
-  </si>
-  <si>
-    <t>11,087</t>
-  </si>
-  <si>
-    <t>30,185</t>
-  </si>
-  <si>
-    <t>10,703</t>
-  </si>
-  <si>
-    <t>11,123</t>
-  </si>
-  <si>
-    <t>19,098</t>
-  </si>
-  <si>
-    <t>10,998</t>
-  </si>
-  <si>
-    <t>24,842</t>
-  </si>
-  <si>
-    <t>14,751</t>
-  </si>
-  <si>
-    <t>8,306</t>
-  </si>
-  <si>
-    <t>8,917</t>
-  </si>
-  <si>
-    <t>13,453</t>
-  </si>
-  <si>
-    <t>8,713</t>
-  </si>
-  <si>
-    <t>6,316</t>
-  </si>
-  <si>
-    <t>12,786</t>
-  </si>
-  <si>
-    <t>18,716</t>
-  </si>
-  <si>
-    <t>20,725</t>
-  </si>
-  <si>
-    <t>6,476</t>
-  </si>
-  <si>
-    <t>7,219</t>
-  </si>
-  <si>
-    <t>17,631</t>
-  </si>
-  <si>
-    <t>16,193</t>
-  </si>
-  <si>
-    <t>2,448</t>
-  </si>
-  <si>
-    <t>12,620</t>
-  </si>
-  <si>
-    <t>8,628</t>
-  </si>
-  <si>
-    <t>6,053</t>
-  </si>
-  <si>
-    <t>5,209</t>
-  </si>
-  <si>
-    <t>9,755</t>
-  </si>
-  <si>
-    <t>2,654</t>
-  </si>
-  <si>
-    <t>4,041</t>
-  </si>
-  <si>
-    <t>4,636</t>
-  </si>
-  <si>
-    <t>4,965</t>
-  </si>
-  <si>
-    <t>4,096</t>
-  </si>
-  <si>
-    <t>17,263</t>
-  </si>
-  <si>
-    <t>1,258</t>
-  </si>
-  <si>
-    <t>4,556</t>
-  </si>
-  <si>
-    <t>6,732</t>
-  </si>
-  <si>
-    <t>1,389</t>
-  </si>
-  <si>
-    <t>5,299</t>
-  </si>
-  <si>
-    <t>5,116</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>3,647</t>
-  </si>
-  <si>
-    <t>2,695</t>
-  </si>
-  <si>
-    <t>5,797</t>
-  </si>
-  <si>
-    <t>861</t>
-  </si>
-  <si>
-    <t>2,605</t>
-  </si>
-  <si>
-    <t>2,367</t>
-  </si>
-  <si>
-    <t>2,668</t>
-  </si>
-  <si>
-    <t>2,706</t>
-  </si>
-  <si>
-    <t>1,352</t>
-  </si>
-  <si>
-    <t>1,912</t>
-  </si>
-  <si>
-    <t>1,062</t>
-  </si>
-  <si>
-    <t>1,914</t>
-  </si>
-  <si>
-    <t>4,615</t>
-  </si>
-  <si>
-    <t>3,494</t>
-  </si>
-  <si>
-    <t>1,150</t>
-  </si>
-  <si>
-    <t>3,152</t>
-  </si>
-  <si>
-    <t>2,302</t>
-  </si>
-  <si>
-    <t>3,222</t>
-  </si>
-  <si>
-    <t>1,278</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>1,368</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>1,858</t>
-  </si>
-  <si>
-    <t>2,279</t>
-  </si>
-  <si>
-    <t>1,084</t>
-  </si>
-  <si>
-    <t>1,526</t>
-  </si>
-  <si>
-    <t>621</t>
-  </si>
-  <si>
-    <t>1,466</t>
-  </si>
-  <si>
-    <t>870</t>
-  </si>
-  <si>
-    <t>2,900</t>
-  </si>
-  <si>
-    <t>773</t>
-  </si>
-  <si>
-    <t>778</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>523</t>
-  </si>
-  <si>
-    <t>1,111</t>
-  </si>
-  <si>
-    <t>842</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>335</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>283</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>33,520,958</t>
-  </si>
-  <si>
-    <t>32,986,180</t>
-  </si>
-  <si>
-    <t>20,383,243</t>
-  </si>
-  <si>
-    <t>6,255,350</t>
-  </si>
-  <si>
-    <t>6,552,771</t>
-  </si>
-  <si>
-    <t>6,750,241</t>
-  </si>
-  <si>
-    <t>5,009,673</t>
-  </si>
-  <si>
-    <t>5,115,084</t>
-  </si>
-  <si>
-    <t>4,795,975</t>
-  </si>
-  <si>
-    <t>4,745,511</t>
-  </si>
-  <si>
-    <t>4,435,370</t>
-  </si>
-  <si>
-    <t>3,989,700</t>
-  </si>
-  <si>
-    <t>4,034,176</t>
-  </si>
-  <si>
-    <t>2,999,060</t>
-  </si>
-  <si>
-    <t>2,662,132</t>
-  </si>
-  <si>
-    <t>2,365,229</t>
-  </si>
-  <si>
-    <t>2,251,352</t>
-  </si>
-  <si>
-    <t>2,020,099</t>
-  </si>
-  <si>
-    <t>1,907,411</t>
-  </si>
-  <si>
-    <t>1,648,065</t>
-  </si>
-  <si>
-    <t>1,609,007</t>
-  </si>
-  <si>
-    <t>1,543,328</t>
-  </si>
-  <si>
-    <t>1,459,786</t>
-  </si>
-  <si>
-    <t>1,514,962</t>
-  </si>
-  <si>
-    <t>1,213,546</t>
-  </si>
-  <si>
-    <t>1,167,189</t>
-  </si>
-  <si>
-    <t>1,152,355</t>
-  </si>
-  <si>
-    <t>1,110,542</t>
-  </si>
-  <si>
-    <t>798,306</t>
-  </si>
-  <si>
-    <t>902,778</t>
-  </si>
-  <si>
-    <t>818,521</t>
-  </si>
-  <si>
-    <t>834,004</t>
-  </si>
-  <si>
-    <t>765,932</t>
-  </si>
-  <si>
-    <t>784,539</t>
-  </si>
-  <si>
-    <t>798,740</t>
-  </si>
-  <si>
-    <t>764,847</t>
-  </si>
-  <si>
-    <t>583,509</t>
-  </si>
-  <si>
-    <t>710,069</t>
-  </si>
-  <si>
-    <t>673,990</t>
-  </si>
-  <si>
-    <t>608,082</t>
-  </si>
-  <si>
-    <t>592,145</t>
-  </si>
-  <si>
-    <t>582,805</t>
-  </si>
-  <si>
-    <t>511,678</t>
-  </si>
-  <si>
-    <t>536,125</t>
-  </si>
-  <si>
-    <t>426,385</t>
-  </si>
-  <si>
-    <t>456,087</t>
-  </si>
-  <si>
-    <t>458,899</t>
-  </si>
-  <si>
-    <t>434,474</t>
-  </si>
-  <si>
-    <t>452,968</t>
-  </si>
-  <si>
-    <t>455,950</t>
-  </si>
-  <si>
-    <t>415,376</t>
-  </si>
-  <si>
-    <t>442,955</t>
-  </si>
-  <si>
-    <t>408,459</t>
-  </si>
-  <si>
-    <t>387,358</t>
-  </si>
-  <si>
-    <t>386,351</t>
-  </si>
-  <si>
-    <t>381,315</t>
-  </si>
-  <si>
-    <t>341,205</t>
-  </si>
-  <si>
-    <t>109,982</t>
-  </si>
-  <si>
-    <t>350,776</t>
-  </si>
-  <si>
-    <t>348,865</t>
-  </si>
-  <si>
-    <t>258,574</t>
-  </si>
-  <si>
-    <t>302,106</t>
-  </si>
-  <si>
-    <t>297,546</t>
-  </si>
-  <si>
-    <t>255,658</t>
-  </si>
-  <si>
-    <t>291,328</t>
-  </si>
-  <si>
-    <t>274,665</t>
-  </si>
-  <si>
-    <t>275,115</t>
-  </si>
-  <si>
-    <t>272,803</t>
-  </si>
-  <si>
-    <t>241,191</t>
-  </si>
-  <si>
-    <t>241,180</t>
-  </si>
-  <si>
-    <t>234,671</t>
-  </si>
-  <si>
-    <t>204,847</t>
-  </si>
-  <si>
-    <t>193,260</t>
-  </si>
-  <si>
-    <t>139,077</t>
-  </si>
-  <si>
-    <t>88,952</t>
-  </si>
-  <si>
-    <t>173,102</t>
-  </si>
-  <si>
-    <t>173,004</t>
-  </si>
-  <si>
-    <t>155,678</t>
-  </si>
-  <si>
-    <t>145,167</t>
-  </si>
-  <si>
-    <t>143,316</t>
-  </si>
-  <si>
-    <t>146,843</t>
-  </si>
-  <si>
-    <t>46,000</t>
-  </si>
-  <si>
-    <t>121,363</t>
-  </si>
-  <si>
-    <t>122,621</t>
-  </si>
-  <si>
-    <t>122,788</t>
-  </si>
-  <si>
-    <t>122,456</t>
-  </si>
-  <si>
-    <t>96,083</t>
-  </si>
-  <si>
-    <t>102,222</t>
-  </si>
-  <si>
-    <t>86,851</t>
-  </si>
-  <si>
-    <t>74,781</t>
-  </si>
-  <si>
-    <t>90,521</t>
-  </si>
-  <si>
-    <t>76,221</t>
-  </si>
-  <si>
-    <t>80,433</t>
-  </si>
-  <si>
-    <t>82,769</t>
-  </si>
-  <si>
-    <t>71,752</t>
-  </si>
-  <si>
-    <t>54,723</t>
-  </si>
-  <si>
-    <t>30,858</t>
-  </si>
-  <si>
-    <t>47,421</t>
-  </si>
-  <si>
-    <t>36,724</t>
-  </si>
-  <si>
-    <t>44,575</t>
-  </si>
-  <si>
-    <t>26,894</t>
-  </si>
-  <si>
-    <t>32,054</t>
-  </si>
-  <si>
-    <t>34,484</t>
-  </si>
-  <si>
-    <t>26,639</t>
-  </si>
-  <si>
-    <t>28,798</t>
-  </si>
-  <si>
-    <t>26,641</t>
-  </si>
-  <si>
-    <t>22,741</t>
-  </si>
-  <si>
-    <t>5,568</t>
-  </si>
-  <si>
-    <t>18,321</t>
-  </si>
-  <si>
-    <t>9,523</t>
-  </si>
-  <si>
-    <t>13,742</t>
-  </si>
-  <si>
-    <t>15,041</t>
-  </si>
-  <si>
-    <t>1,854</t>
-  </si>
-  <si>
-    <t>14,986</t>
-  </si>
-  <si>
-    <t>14,285</t>
-  </si>
-  <si>
-    <t>4,225</t>
-  </si>
-  <si>
-    <t>6,830</t>
-  </si>
-  <si>
-    <t>12,045</t>
-  </si>
-  <si>
-    <t>11,901</t>
-  </si>
-  <si>
-    <t>11,570</t>
-  </si>
-  <si>
-    <t>10,225</t>
-  </si>
-  <si>
-    <t>11,372</t>
-  </si>
-  <si>
-    <t>9,571</t>
-  </si>
-  <si>
-    <t>6,819</t>
-  </si>
-  <si>
-    <t>7,096</t>
-  </si>
-  <si>
-    <t>4,722</t>
-  </si>
-  <si>
-    <t>5,750</t>
-  </si>
-  <si>
-    <t>5,458</t>
-  </si>
-  <si>
-    <t>5,310</t>
-  </si>
-  <si>
-    <t>3,613</t>
-  </si>
-  <si>
-    <t>3,361</t>
-  </si>
-  <si>
-    <t>3,965</t>
-  </si>
-  <si>
-    <t>3,250</t>
-  </si>
-  <si>
-    <t>2,593</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
     <t>U.S.</t>
   </si>
   <si>
@@ -3130,7 +2317,7 @@
     <t>오세아니아</t>
   </si>
   <si>
-    <t>백신보유량</t>
+    <t>인구당_백신보유율</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3543,7 +2730,7 @@
   <dimension ref="A1:V140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3595,10 +2782,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1036</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>765</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>16</v>
@@ -3644,14 +2831,14 @@
       <c r="I2">
         <v>113357</v>
       </c>
-      <c r="J2" t="s">
-        <v>481</v>
+      <c r="J2">
+        <v>711222</v>
       </c>
       <c r="K2">
         <v>2103</v>
       </c>
-      <c r="L2" t="s">
-        <v>617</v>
+      <c r="L2">
+        <v>126125</v>
       </c>
       <c r="M2">
         <v>126125</v>
@@ -3660,7 +2847,7 @@
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>752</v>
+        <v>481</v>
       </c>
       <c r="P2">
         <v>391992670</v>
@@ -3678,10 +2865,10 @@
         <v>706771</v>
       </c>
       <c r="U2" t="s">
-        <v>891</v>
+        <v>620</v>
       </c>
       <c r="V2" t="s">
-        <v>1029</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
@@ -3709,14 +2896,14 @@
       <c r="I3">
         <v>4743</v>
       </c>
-      <c r="J3" t="s">
-        <v>482</v>
+      <c r="J3">
+        <v>447828</v>
       </c>
       <c r="K3">
         <v>129</v>
       </c>
-      <c r="L3" t="s">
-        <v>618</v>
+      <c r="L3">
+        <v>9420</v>
       </c>
       <c r="M3">
         <v>9420</v>
@@ -3725,7 +2912,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>753</v>
+        <v>482</v>
       </c>
       <c r="P3">
         <v>883358400</v>
@@ -3743,10 +2930,10 @@
         <v>7087679</v>
       </c>
       <c r="U3" t="s">
-        <v>892</v>
+        <v>621</v>
       </c>
       <c r="V3" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
@@ -3774,14 +2961,14 @@
       <c r="I4">
         <v>15395</v>
       </c>
-      <c r="J4" t="s">
-        <v>483</v>
+      <c r="J4">
+        <v>595520</v>
       </c>
       <c r="K4">
         <v>818</v>
       </c>
-      <c r="L4" t="s">
-        <v>619</v>
+      <c r="L4">
+        <v>22052</v>
       </c>
       <c r="M4">
         <v>22052</v>
@@ -3790,7 +2977,7 @@
         <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>754</v>
+        <v>483</v>
       </c>
       <c r="P4">
         <v>234674910</v>
@@ -3808,10 +2995,10 @@
         <v>1396215</v>
       </c>
       <c r="U4" t="s">
-        <v>893</v>
+        <v>622</v>
       </c>
       <c r="V4" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
@@ -3842,14 +3029,14 @@
       <c r="I5">
         <v>34520</v>
       </c>
-      <c r="J5" t="s">
-        <v>484</v>
+      <c r="J5">
+        <v>136375</v>
       </c>
       <c r="K5">
         <v>167</v>
       </c>
-      <c r="L5" t="s">
-        <v>620</v>
+      <c r="L5">
+        <v>36239</v>
       </c>
       <c r="M5">
         <v>36239</v>
@@ -3858,7 +3045,7 @@
         <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>755</v>
+        <v>484</v>
       </c>
       <c r="P5">
         <v>93630856</v>
@@ -3876,10 +3063,10 @@
         <v>63598</v>
       </c>
       <c r="U5" t="s">
-        <v>894</v>
+        <v>623</v>
       </c>
       <c r="V5" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
@@ -3907,14 +3094,14 @@
       <c r="I6">
         <v>28892</v>
       </c>
-      <c r="J6" t="s">
-        <v>485</v>
+      <c r="J6">
+        <v>63611</v>
       </c>
       <c r="K6">
         <v>239</v>
       </c>
-      <c r="L6" t="s">
-        <v>621</v>
+      <c r="L6">
+        <v>30336</v>
       </c>
       <c r="M6">
         <v>30336</v>
@@ -3923,7 +3110,7 @@
         <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>756</v>
+        <v>485</v>
       </c>
       <c r="P6">
         <v>109164376</v>
@@ -3941,10 +3128,10 @@
         <v>378499</v>
       </c>
       <c r="U6" t="s">
-        <v>895</v>
+        <v>624</v>
       </c>
       <c r="V6" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
@@ -3972,14 +3159,14 @@
       <c r="I7">
         <v>6765</v>
       </c>
-      <c r="J7" t="s">
-        <v>486</v>
+      <c r="J7">
+        <v>116615</v>
       </c>
       <c r="K7">
         <v>78</v>
       </c>
-      <c r="L7" t="s">
-        <v>622</v>
+      <c r="L7">
+        <v>12750</v>
       </c>
       <c r="M7">
         <v>12750</v>
@@ -3988,7 +3175,7 @@
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>757</v>
+        <v>486</v>
       </c>
       <c r="P7">
         <v>94409620</v>
@@ -4006,10 +3193,10 @@
         <v>238666</v>
       </c>
       <c r="U7" t="s">
-        <v>896</v>
+        <v>625</v>
       </c>
       <c r="V7" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
@@ -4040,14 +3227,14 @@
       <c r="I8">
         <v>13271</v>
       </c>
-      <c r="J8" t="s">
-        <v>487</v>
+      <c r="J8">
+        <v>120160</v>
       </c>
       <c r="K8">
         <v>272</v>
       </c>
-      <c r="L8" t="s">
-        <v>623</v>
+      <c r="L8">
+        <v>21564</v>
       </c>
       <c r="M8">
         <v>21564</v>
@@ -4056,7 +3243,7 @@
         <v>27</v>
       </c>
       <c r="O8" t="s">
-        <v>758</v>
+        <v>487</v>
       </c>
       <c r="P8">
         <v>51950784</v>
@@ -4074,10 +3261,10 @@
         <v>953168</v>
       </c>
       <c r="U8" t="s">
-        <v>897</v>
+        <v>626</v>
       </c>
       <c r="V8" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
@@ -4108,14 +3295,14 @@
       <c r="I9">
         <v>1825</v>
       </c>
-      <c r="J9" t="s">
-        <v>488</v>
+      <c r="J9">
+        <v>115038</v>
       </c>
       <c r="K9">
         <v>84</v>
       </c>
-      <c r="L9" t="s">
-        <v>624</v>
+      <c r="L9">
+        <v>1481</v>
       </c>
       <c r="M9">
         <v>1481</v>
@@ -4124,7 +3311,7 @@
         <v>28</v>
       </c>
       <c r="O9" t="s">
-        <v>759</v>
+        <v>488</v>
       </c>
       <c r="P9">
         <v>51516132</v>
@@ -4142,10 +3329,10 @@
         <v>215137</v>
       </c>
       <c r="U9" t="s">
-        <v>898</v>
+        <v>627</v>
       </c>
       <c r="V9" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
@@ -4173,14 +3360,14 @@
       <c r="I10">
         <v>1686</v>
       </c>
-      <c r="J10" t="s">
-        <v>489</v>
+      <c r="J10">
+        <v>126219</v>
       </c>
       <c r="K10">
         <v>41</v>
       </c>
-      <c r="L10" t="s">
-        <v>625</v>
+      <c r="L10">
+        <v>2588</v>
       </c>
       <c r="M10">
         <v>2588</v>
@@ -4189,7 +3376,7 @@
         <v>29</v>
       </c>
       <c r="O10" t="s">
-        <v>760</v>
+        <v>489</v>
       </c>
       <c r="P10">
         <v>39913296</v>
@@ -4207,10 +3394,10 @@
         <v>175737</v>
       </c>
       <c r="U10" t="s">
-        <v>899</v>
+        <v>628</v>
       </c>
       <c r="V10" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
@@ -4241,14 +3428,14 @@
       <c r="I11">
         <v>2290</v>
       </c>
-      <c r="J11" t="s">
-        <v>490</v>
+      <c r="J11">
+        <v>86358</v>
       </c>
       <c r="K11">
         <v>60</v>
       </c>
-      <c r="L11" t="s">
-        <v>626</v>
+      <c r="L11">
+        <v>9489</v>
       </c>
       <c r="M11">
         <v>9489</v>
@@ -4257,7 +3444,7 @@
         <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>761</v>
+        <v>490</v>
       </c>
       <c r="P11">
         <v>70022100</v>
@@ -4275,10 +3462,10 @@
         <v>67575</v>
       </c>
       <c r="U11" t="s">
-        <v>900</v>
+        <v>629</v>
       </c>
       <c r="V11" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
@@ -4309,14 +3496,14 @@
       <c r="I12">
         <v>2962</v>
       </c>
-      <c r="J12" t="s">
-        <v>491</v>
+      <c r="J12">
+        <v>130807</v>
       </c>
       <c r="K12">
         <v>65</v>
       </c>
-      <c r="L12" t="s">
-        <v>627</v>
+      <c r="L12">
+        <v>5105</v>
       </c>
       <c r="M12">
         <v>5105</v>
@@ -4325,7 +3512,7 @@
         <v>31</v>
       </c>
       <c r="O12" t="s">
-        <v>762</v>
+        <v>491</v>
       </c>
       <c r="P12">
         <v>84548510</v>
@@ -4343,10 +3530,10 @@
         <v>201909</v>
       </c>
       <c r="U12" t="s">
-        <v>901</v>
+        <v>630</v>
       </c>
       <c r="V12" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
@@ -4374,14 +3561,14 @@
       <c r="I13">
         <v>9130</v>
       </c>
-      <c r="J13" t="s">
-        <v>492</v>
+      <c r="J13">
+        <v>94140</v>
       </c>
       <c r="K13">
         <v>91</v>
       </c>
-      <c r="L13" t="s">
-        <v>628</v>
+      <c r="L13">
+        <v>11500</v>
       </c>
       <c r="M13">
         <v>11500</v>
@@ -4390,7 +3577,7 @@
         <v>32</v>
       </c>
       <c r="O13" t="s">
-        <v>763</v>
+        <v>492</v>
       </c>
       <c r="P13">
         <v>107422984</v>
@@ -4408,10 +3595,10 @@
         <v>193171</v>
       </c>
       <c r="U13" t="s">
-        <v>902</v>
+        <v>631</v>
       </c>
       <c r="V13" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
@@ -4436,14 +3623,14 @@
       <c r="I14">
         <v>1954</v>
       </c>
-      <c r="J14" t="s">
-        <v>493</v>
+      <c r="J14">
+        <v>141826</v>
       </c>
       <c r="K14">
         <v>117</v>
       </c>
-      <c r="L14" t="s">
-        <v>629</v>
+      <c r="L14">
+        <v>3077</v>
       </c>
       <c r="M14">
         <v>3077</v>
@@ -4452,7 +3639,7 @@
         <v>33</v>
       </c>
       <c r="O14" t="s">
-        <v>764</v>
+        <v>493</v>
       </c>
       <c r="P14">
         <v>141049220</v>
@@ -4470,10 +3657,10 @@
         <v>1850779</v>
       </c>
       <c r="U14" t="s">
-        <v>903</v>
+        <v>632</v>
       </c>
       <c r="V14" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
@@ -4501,14 +3688,14 @@
       <c r="I15">
         <v>9792</v>
       </c>
-      <c r="J15" t="s">
-        <v>494</v>
+      <c r="J15">
+        <v>276376</v>
       </c>
       <c r="K15">
         <v>700</v>
       </c>
-      <c r="L15" t="s">
-        <v>630</v>
+      <c r="L15">
+        <v>7337</v>
       </c>
       <c r="M15">
         <v>7337</v>
@@ -4517,7 +3704,7 @@
         <v>34</v>
       </c>
       <c r="O15" t="s">
-        <v>765</v>
+        <v>494</v>
       </c>
       <c r="P15">
         <v>99868670</v>
@@ -4535,10 +3722,10 @@
         <v>439355</v>
       </c>
       <c r="U15" t="s">
-        <v>904</v>
+        <v>633</v>
       </c>
       <c r="V15" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
@@ -4569,14 +3756,14 @@
       <c r="I16">
         <v>1235</v>
       </c>
-      <c r="J16" t="s">
-        <v>495</v>
+      <c r="J16">
+        <v>75623</v>
       </c>
       <c r="K16">
         <v>22</v>
       </c>
-      <c r="L16" t="s">
-        <v>631</v>
+      <c r="L16">
+        <v>17</v>
       </c>
       <c r="M16">
         <v>17</v>
@@ -4585,7 +3772,7 @@
         <v>35</v>
       </c>
       <c r="O16" t="s">
-        <v>766</v>
+        <v>495</v>
       </c>
       <c r="P16">
         <v>37186150</v>
@@ -4603,10 +3790,10 @@
         <v>25586</v>
       </c>
       <c r="U16" t="s">
-        <v>905</v>
+        <v>634</v>
       </c>
       <c r="V16" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
@@ -4634,14 +3821,14 @@
       <c r="I17">
         <v>12767</v>
       </c>
-      <c r="J17" t="s">
-        <v>496</v>
+      <c r="J17">
+        <v>38164</v>
       </c>
       <c r="K17">
         <v>478</v>
       </c>
-      <c r="L17" t="s">
-        <v>632</v>
+      <c r="L17">
+        <v>12089</v>
       </c>
       <c r="M17">
         <v>12089</v>
@@ -4650,7 +3837,7 @@
         <v>36</v>
       </c>
       <c r="O17" t="s">
-        <v>767</v>
+        <v>496</v>
       </c>
       <c r="P17">
         <v>44741740</v>
@@ -4668,10 +3855,10 @@
         <v>372853</v>
       </c>
       <c r="U17" t="s">
-        <v>906</v>
+        <v>635</v>
       </c>
       <c r="V17" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
@@ -4699,14 +3886,14 @@
       <c r="I18">
         <v>9666</v>
       </c>
-      <c r="J18" t="s">
-        <v>497</v>
+      <c r="J18">
+        <v>56080</v>
       </c>
       <c r="K18">
         <v>217</v>
       </c>
-      <c r="L18" t="s">
-        <v>633</v>
+      <c r="L18">
+        <v>3281</v>
       </c>
       <c r="M18">
         <v>3281</v>
@@ -4715,7 +3902,7 @@
         <v>37</v>
       </c>
       <c r="O18" t="s">
-        <v>768</v>
+        <v>497</v>
       </c>
       <c r="P18">
         <v>18057256</v>
@@ -4733,10 +3920,10 @@
         <v>161358</v>
       </c>
       <c r="U18" t="s">
-        <v>907</v>
+        <v>636</v>
       </c>
       <c r="V18" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
@@ -4767,14 +3954,14 @@
       <c r="I19">
         <v>11332</v>
       </c>
-      <c r="J19" t="s">
-        <v>498</v>
+      <c r="J19">
+        <v>25935</v>
       </c>
       <c r="K19">
         <v>240</v>
       </c>
-      <c r="L19" t="s">
-        <v>634</v>
+      <c r="L19">
+        <v>14160</v>
       </c>
       <c r="M19">
         <v>14160</v>
@@ -4783,7 +3970,7 @@
         <v>38</v>
       </c>
       <c r="O19" t="s">
-        <v>769</v>
+        <v>498</v>
       </c>
       <c r="P19">
         <v>43367580</v>
@@ -4801,10 +3988,10 @@
         <v>302901</v>
       </c>
       <c r="U19" t="s">
-        <v>908</v>
+        <v>637</v>
       </c>
       <c r="V19" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
@@ -4832,8 +4019,8 @@
       <c r="I20">
         <v>865</v>
       </c>
-      <c r="J20" t="s">
-        <v>499</v>
+      <c r="J20">
+        <v>199329</v>
       </c>
       <c r="K20">
         <v>15</v>
@@ -4842,7 +4029,7 @@
         <v>39</v>
       </c>
       <c r="O20" t="s">
-        <v>770</v>
+        <v>499</v>
       </c>
       <c r="P20">
         <v>26058662</v>
@@ -4860,10 +4047,10 @@
         <v>230804</v>
       </c>
       <c r="U20" t="s">
-        <v>909</v>
+        <v>638</v>
       </c>
       <c r="V20" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
@@ -4891,8 +4078,8 @@
       <c r="I21">
         <v>1755</v>
       </c>
-      <c r="J21" t="s">
-        <v>500</v>
+      <c r="J21">
+        <v>18168</v>
       </c>
       <c r="K21">
         <v>6</v>
@@ -4901,7 +4088,7 @@
         <v>40</v>
       </c>
       <c r="O21" t="s">
-        <v>771</v>
+        <v>500</v>
       </c>
       <c r="P21">
         <v>23540560</v>
@@ -4919,10 +4106,10 @@
         <v>20075</v>
       </c>
       <c r="U21" t="s">
-        <v>910</v>
+        <v>639</v>
       </c>
       <c r="V21" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
@@ -4953,14 +4140,14 @@
       <c r="I22">
         <v>2254</v>
       </c>
-      <c r="J22" t="s">
-        <v>501</v>
+      <c r="J22">
+        <v>22221</v>
       </c>
       <c r="K22">
         <v>34</v>
       </c>
-      <c r="L22" t="s">
-        <v>635</v>
+      <c r="L22">
+        <v>3389</v>
       </c>
       <c r="M22">
         <v>3389</v>
@@ -4969,7 +4156,7 @@
         <v>41</v>
       </c>
       <c r="O22" t="s">
-        <v>772</v>
+        <v>501</v>
       </c>
       <c r="P22">
         <v>7608508</v>
@@ -4987,10 +4174,10 @@
         <v>38726</v>
       </c>
       <c r="U22" t="s">
-        <v>911</v>
+        <v>640</v>
       </c>
       <c r="V22" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
@@ -5021,14 +4208,14 @@
       <c r="I23">
         <v>1982</v>
       </c>
-      <c r="J23" t="s">
-        <v>502</v>
+      <c r="J23">
+        <v>17625</v>
       </c>
       <c r="K23">
         <v>48</v>
       </c>
-      <c r="L23" t="s">
-        <v>636</v>
+      <c r="L23">
+        <v>4440</v>
       </c>
       <c r="M23">
         <v>4440</v>
@@ -5037,7 +4224,7 @@
         <v>42</v>
       </c>
       <c r="O23" t="s">
-        <v>773</v>
+        <v>502</v>
       </c>
       <c r="P23">
         <v>162577380</v>
@@ -5055,10 +4242,10 @@
         <v>1086500</v>
       </c>
       <c r="U23" t="s">
-        <v>912</v>
+        <v>641</v>
       </c>
       <c r="V23" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
@@ -5089,14 +4276,14 @@
       <c r="I24">
         <v>611</v>
       </c>
-      <c r="J24" t="s">
-        <v>503</v>
+      <c r="J24">
+        <v>37455</v>
       </c>
       <c r="K24">
         <v>6</v>
       </c>
-      <c r="L24" t="s">
-        <v>637</v>
+      <c r="L24">
+        <v>423</v>
       </c>
       <c r="M24">
         <v>423</v>
@@ -5105,7 +4292,7 @@
         <v>43</v>
       </c>
       <c r="O24" t="s">
-        <v>774</v>
+        <v>503</v>
       </c>
       <c r="P24">
         <v>31664524</v>
@@ -5123,10 +4310,10 @@
         <v>90807</v>
       </c>
       <c r="U24" t="s">
-        <v>913</v>
+        <v>642</v>
       </c>
       <c r="V24" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
@@ -5157,14 +4344,14 @@
       <c r="I25">
         <v>3428</v>
       </c>
-      <c r="J25" t="s">
-        <v>504</v>
+      <c r="J25">
+        <v>27754</v>
       </c>
       <c r="K25">
         <v>56</v>
       </c>
-      <c r="L25" t="s">
-        <v>638</v>
+      <c r="L25">
+        <v>5048</v>
       </c>
       <c r="M25">
         <v>5048</v>
@@ -5173,7 +4360,7 @@
         <v>44</v>
       </c>
       <c r="O25" t="s">
-        <v>775</v>
+        <v>504</v>
       </c>
       <c r="P25">
         <v>56108840</v>
@@ -5191,10 +4378,10 @@
         <v>99712</v>
       </c>
       <c r="U25" t="s">
-        <v>914</v>
+        <v>643</v>
       </c>
       <c r="V25" t="s">
-        <v>1029</v>
+        <v>758</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
@@ -5222,14 +4409,14 @@
       <c r="I26">
         <v>10414</v>
       </c>
-      <c r="J26" t="s">
-        <v>505</v>
+      <c r="J26">
+        <v>16620</v>
       </c>
       <c r="K26">
         <v>122</v>
       </c>
-      <c r="L26" t="s">
-        <v>639</v>
+      <c r="L26">
+        <v>11580</v>
       </c>
       <c r="M26">
         <v>11580</v>
@@ -5238,7 +4425,7 @@
         <v>45</v>
       </c>
       <c r="O26" t="s">
-        <v>776</v>
+        <v>505</v>
       </c>
       <c r="P26">
         <v>49681430</v>
@@ -5256,10 +4443,10 @@
         <v>614129</v>
       </c>
       <c r="U26" t="s">
-        <v>915</v>
+        <v>644</v>
       </c>
       <c r="V26" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
@@ -5287,14 +4474,14 @@
       <c r="I27">
         <v>1178</v>
       </c>
-      <c r="J27" t="s">
-        <v>506</v>
+      <c r="J27">
+        <v>27487</v>
       </c>
       <c r="K27">
         <v>17</v>
       </c>
-      <c r="L27" t="s">
-        <v>640</v>
+      <c r="L27">
+        <v>1086</v>
       </c>
       <c r="M27">
         <v>1086</v>
@@ -5303,7 +4490,7 @@
         <v>46</v>
       </c>
       <c r="O27" t="s">
-        <v>777</v>
+        <v>506</v>
       </c>
       <c r="P27">
         <v>48225450</v>
@@ -5321,10 +4508,10 @@
         <v>1387002</v>
       </c>
       <c r="U27" t="s">
-        <v>916</v>
+        <v>645</v>
       </c>
       <c r="V27" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
@@ -5355,14 +4542,14 @@
       <c r="I28">
         <v>5175</v>
       </c>
-      <c r="J28" t="s">
-        <v>507</v>
+      <c r="J28">
+        <v>7692</v>
       </c>
       <c r="K28">
         <v>8</v>
       </c>
-      <c r="L28" t="s">
-        <v>641</v>
+      <c r="L28">
+        <v>7889</v>
       </c>
       <c r="M28">
         <v>7889</v>
@@ -5371,7 +4558,7 @@
         <v>47</v>
       </c>
       <c r="O28" t="s">
-        <v>778</v>
+        <v>507</v>
       </c>
       <c r="P28">
         <v>15030613</v>
@@ -5389,10 +4576,10 @@
         <v>32724</v>
       </c>
       <c r="U28" t="s">
-        <v>917</v>
+        <v>646</v>
       </c>
       <c r="V28" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
@@ -5423,14 +4610,14 @@
       <c r="I29">
         <v>1560</v>
       </c>
-      <c r="J29" t="s">
-        <v>508</v>
+      <c r="J29">
+        <v>27690</v>
       </c>
       <c r="K29">
         <v>52</v>
       </c>
-      <c r="L29" t="s">
-        <v>642</v>
+      <c r="L29">
+        <v>2970</v>
       </c>
       <c r="M29">
         <v>2970</v>
@@ -5439,7 +4626,7 @@
         <v>48</v>
       </c>
       <c r="O29" t="s">
-        <v>779</v>
+        <v>508</v>
       </c>
       <c r="P29">
         <v>80508570</v>
@@ -5457,10 +4644,10 @@
         <v>717039</v>
       </c>
       <c r="U29" t="s">
-        <v>918</v>
+        <v>647</v>
       </c>
       <c r="V29" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
@@ -5488,20 +4675,17 @@
       <c r="I30">
         <v>1874</v>
       </c>
-      <c r="J30" t="s">
-        <v>509</v>
+      <c r="J30">
+        <v>25581</v>
       </c>
       <c r="K30">
         <v>13</v>
       </c>
-      <c r="L30" t="s">
-        <v>643</v>
-      </c>
       <c r="N30" t="s">
         <v>49</v>
       </c>
       <c r="O30" t="s">
-        <v>780</v>
+        <v>509</v>
       </c>
       <c r="P30">
         <v>16672036</v>
@@ -5519,10 +4703,10 @@
         <v>21397</v>
       </c>
       <c r="U30" t="s">
-        <v>919</v>
+        <v>648</v>
       </c>
       <c r="V30" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
@@ -5553,14 +4737,14 @@
       <c r="I31">
         <v>10826</v>
       </c>
-      <c r="J31" t="s">
-        <v>510</v>
+      <c r="J31">
+        <v>36865</v>
       </c>
       <c r="K31">
         <v>207</v>
       </c>
-      <c r="L31" t="s">
-        <v>644</v>
+      <c r="L31">
+        <v>6046</v>
       </c>
       <c r="M31">
         <v>6046</v>
@@ -5569,7 +4753,7 @@
         <v>50</v>
       </c>
       <c r="O31" t="s">
-        <v>781</v>
+        <v>510</v>
       </c>
       <c r="P31">
         <v>10175695</v>
@@ -5587,10 +4771,10 @@
         <v>26825</v>
       </c>
       <c r="U31" t="s">
-        <v>920</v>
+        <v>649</v>
       </c>
       <c r="V31" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
@@ -5618,8 +4802,8 @@
       <c r="I32">
         <v>854</v>
       </c>
-      <c r="J32" t="s">
-        <v>511</v>
+      <c r="J32">
+        <v>14814</v>
       </c>
       <c r="K32">
         <v>6</v>
@@ -5628,7 +4812,7 @@
         <v>51</v>
       </c>
       <c r="O32" t="s">
-        <v>782</v>
+        <v>511</v>
       </c>
       <c r="P32">
         <v>13730445</v>
@@ -5646,10 +4830,10 @@
         <v>28302</v>
       </c>
       <c r="U32" t="s">
-        <v>921</v>
+        <v>650</v>
       </c>
       <c r="V32" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
@@ -5680,14 +4864,14 @@
       <c r="I33">
         <v>8171</v>
       </c>
-      <c r="J33" t="s">
-        <v>512</v>
+      <c r="J33">
+        <v>8187</v>
       </c>
       <c r="K33">
         <v>45</v>
       </c>
-      <c r="L33" t="s">
-        <v>645</v>
+      <c r="L33">
+        <v>6044</v>
       </c>
       <c r="M33">
         <v>6044</v>
@@ -5696,7 +4880,7 @@
         <v>52</v>
       </c>
       <c r="O33" t="s">
-        <v>783</v>
+        <v>512</v>
       </c>
       <c r="P33">
         <v>6456710</v>
@@ -5714,10 +4898,10 @@
         <v>17745</v>
       </c>
       <c r="U33" t="s">
-        <v>922</v>
+        <v>651</v>
       </c>
       <c r="V33" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
@@ -5748,14 +4932,14 @@
       <c r="I34">
         <v>1192</v>
       </c>
-      <c r="J34" t="s">
-        <v>513</v>
+      <c r="J34">
+        <v>14225</v>
       </c>
       <c r="K34">
         <v>26</v>
       </c>
-      <c r="L34" t="s">
-        <v>646</v>
+      <c r="L34">
+        <v>1558</v>
       </c>
       <c r="M34">
         <v>1558</v>
@@ -5764,7 +4948,7 @@
         <v>53</v>
       </c>
       <c r="O34" t="s">
-        <v>784</v>
+        <v>513</v>
       </c>
       <c r="P34">
         <v>41099860</v>
@@ -5782,10 +4966,10 @@
         <v>276939</v>
       </c>
       <c r="U34" t="s">
-        <v>923</v>
+        <v>652</v>
       </c>
       <c r="V34" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
@@ -5813,14 +4997,14 @@
       <c r="I35">
         <v>1925</v>
       </c>
-      <c r="J35" t="s">
-        <v>514</v>
+      <c r="J35">
+        <v>11142</v>
       </c>
       <c r="K35">
         <v>42</v>
       </c>
-      <c r="L35" t="s">
-        <v>647</v>
+      <c r="L35">
+        <v>2857</v>
       </c>
       <c r="M35">
         <v>2857</v>
@@ -5829,7 +5013,7 @@
         <v>54</v>
       </c>
       <c r="O35" t="s">
-        <v>785</v>
+        <v>514</v>
       </c>
       <c r="P35">
         <v>14095115</v>
@@ -5847,10 +5031,10 @@
         <v>56703</v>
       </c>
       <c r="U35" t="s">
-        <v>924</v>
+        <v>653</v>
       </c>
       <c r="V35" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
@@ -5881,14 +5065,14 @@
       <c r="I36">
         <v>5617</v>
       </c>
-      <c r="J36" t="s">
-        <v>515</v>
+      <c r="J36">
+        <v>7378</v>
       </c>
       <c r="K36">
         <v>48</v>
       </c>
-      <c r="L36" t="s">
-        <v>648</v>
+      <c r="L36">
+        <v>7277</v>
       </c>
       <c r="M36">
         <v>7277</v>
@@ -5897,7 +5081,7 @@
         <v>55</v>
       </c>
       <c r="O36" t="s">
-        <v>786</v>
+        <v>515</v>
       </c>
       <c r="P36">
         <v>20535956</v>
@@ -5915,10 +5099,10 @@
         <v>254770</v>
       </c>
       <c r="U36" t="s">
-        <v>925</v>
+        <v>654</v>
       </c>
       <c r="V36" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
@@ -5949,14 +5133,14 @@
       <c r="I37">
         <v>1451</v>
       </c>
-      <c r="J37" t="s">
-        <v>516</v>
+      <c r="J37">
+        <v>11087</v>
       </c>
       <c r="K37">
         <v>8</v>
       </c>
-      <c r="L37" t="s">
-        <v>649</v>
+      <c r="L37">
+        <v>6191</v>
       </c>
       <c r="M37">
         <v>6191</v>
@@ -5965,7 +5149,7 @@
         <v>56</v>
       </c>
       <c r="O37" t="s">
-        <v>787</v>
+        <v>516</v>
       </c>
       <c r="P37">
         <v>10383501</v>
@@ -5983,10 +5167,10 @@
         <v>27584</v>
       </c>
       <c r="U37" t="s">
-        <v>926</v>
+        <v>655</v>
       </c>
       <c r="V37" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
@@ -6017,14 +5201,14 @@
       <c r="I38">
         <v>546</v>
       </c>
-      <c r="J38" t="s">
-        <v>517</v>
+      <c r="J38">
+        <v>30185</v>
       </c>
       <c r="K38">
         <v>6</v>
       </c>
-      <c r="L38" t="s">
-        <v>650</v>
+      <c r="L38">
+        <v>724</v>
       </c>
       <c r="M38">
         <v>724</v>
@@ -6033,7 +5217,7 @@
         <v>57</v>
       </c>
       <c r="O38" t="s">
-        <v>788</v>
+        <v>517</v>
       </c>
       <c r="P38">
         <v>11167215</v>
@@ -6051,10 +5235,10 @@
         <v>5617</v>
       </c>
       <c r="U38" t="s">
-        <v>927</v>
+        <v>656</v>
       </c>
       <c r="V38" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
@@ -6085,14 +5269,14 @@
       <c r="I39">
         <v>1042</v>
       </c>
-      <c r="J39" t="s">
-        <v>518</v>
+      <c r="J39">
+        <v>10703</v>
       </c>
       <c r="K39">
         <v>6</v>
       </c>
-      <c r="L39" t="s">
-        <v>651</v>
+      <c r="L39">
+        <v>967</v>
       </c>
       <c r="M39">
         <v>967</v>
@@ -6101,7 +5285,7 @@
         <v>58</v>
       </c>
       <c r="O39" t="s">
-        <v>789</v>
+        <v>518</v>
       </c>
       <c r="P39">
         <v>6976290</v>
@@ -6119,10 +5303,10 @@
         <v>15752</v>
       </c>
       <c r="U39" t="s">
-        <v>928</v>
+        <v>657</v>
       </c>
       <c r="V39" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
@@ -6147,14 +5331,14 @@
       <c r="I40">
         <v>892</v>
       </c>
-      <c r="J40" t="s">
-        <v>519</v>
+      <c r="J40">
+        <v>11123</v>
       </c>
       <c r="K40">
         <v>8</v>
       </c>
-      <c r="L40" t="s">
-        <v>652</v>
+      <c r="L40">
+        <v>1113</v>
       </c>
       <c r="M40">
         <v>1113</v>
@@ -6163,7 +5347,7 @@
         <v>59</v>
       </c>
       <c r="O40" t="s">
-        <v>790</v>
+        <v>519</v>
       </c>
       <c r="P40">
         <v>13452743</v>
@@ -6181,10 +5365,10 @@
         <v>205302</v>
       </c>
       <c r="U40" t="s">
-        <v>929</v>
+        <v>658</v>
       </c>
       <c r="V40" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
@@ -6209,14 +5393,14 @@
       <c r="I41">
         <v>8758</v>
       </c>
-      <c r="J41" t="s">
-        <v>520</v>
+      <c r="J41">
+        <v>19098</v>
       </c>
       <c r="K41">
         <v>162</v>
       </c>
-      <c r="L41" t="s">
-        <v>653</v>
+      <c r="L41">
+        <v>23568</v>
       </c>
       <c r="M41">
         <v>23568</v>
@@ -6225,7 +5409,7 @@
         <v>60</v>
       </c>
       <c r="O41" t="s">
-        <v>791</v>
+        <v>520</v>
       </c>
       <c r="P41">
         <v>39232772</v>
@@ -6243,10 +5427,10 @@
         <v>631780</v>
       </c>
       <c r="U41" t="s">
-        <v>930</v>
+        <v>659</v>
       </c>
       <c r="V41" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
@@ -6277,14 +5461,14 @@
       <c r="I42">
         <v>2283</v>
       </c>
-      <c r="J42" t="s">
-        <v>521</v>
+      <c r="J42">
+        <v>10998</v>
       </c>
       <c r="K42">
         <v>12</v>
       </c>
-      <c r="L42" t="s">
-        <v>654</v>
+      <c r="L42">
+        <v>2209</v>
       </c>
       <c r="M42">
         <v>2209</v>
@@ -6293,7 +5477,7 @@
         <v>61</v>
       </c>
       <c r="O42" t="s">
-        <v>792</v>
+        <v>521</v>
       </c>
       <c r="P42">
         <v>10817179</v>
@@ -6311,10 +5495,10 @@
         <v>9594</v>
       </c>
       <c r="U42" t="s">
-        <v>931</v>
+        <v>660</v>
       </c>
       <c r="V42" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
@@ -6345,14 +5529,14 @@
       <c r="I43">
         <v>840</v>
       </c>
-      <c r="J43" t="s">
-        <v>522</v>
+      <c r="J43">
+        <v>24842</v>
       </c>
       <c r="K43">
         <v>48</v>
       </c>
-      <c r="L43" t="s">
-        <v>655</v>
+      <c r="L43">
+        <v>552</v>
       </c>
       <c r="M43">
         <v>552</v>
@@ -6361,7 +5545,7 @@
         <v>62</v>
       </c>
       <c r="O43" t="s">
-        <v>793</v>
+        <v>522</v>
       </c>
       <c r="P43">
         <v>7975573</v>
@@ -6379,10 +5563,10 @@
         <v>104696</v>
       </c>
       <c r="U43" t="s">
-        <v>932</v>
+        <v>661</v>
       </c>
       <c r="V43" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.45">
@@ -6413,20 +5597,17 @@
       <c r="I44">
         <v>3287</v>
       </c>
-      <c r="J44" t="s">
-        <v>523</v>
+      <c r="J44">
+        <v>14751</v>
       </c>
       <c r="K44">
         <v>24</v>
       </c>
-      <c r="L44" t="s">
-        <v>656</v>
-      </c>
       <c r="N44" t="s">
         <v>63</v>
       </c>
       <c r="O44" t="s">
-        <v>794</v>
+        <v>523</v>
       </c>
       <c r="P44">
         <v>12112128</v>
@@ -6444,10 +5625,10 @@
         <v>21649</v>
       </c>
       <c r="U44" t="s">
-        <v>933</v>
+        <v>662</v>
       </c>
       <c r="V44" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.45">
@@ -6475,14 +5656,14 @@
       <c r="I45">
         <v>543</v>
       </c>
-      <c r="J45" t="s">
-        <v>524</v>
+      <c r="J45">
+        <v>8306</v>
       </c>
       <c r="K45">
         <v>10</v>
       </c>
-      <c r="L45" t="s">
-        <v>657</v>
+      <c r="L45">
+        <v>1143</v>
       </c>
       <c r="M45">
         <v>1143</v>
@@ -6491,7 +5672,7 @@
         <v>64</v>
       </c>
       <c r="O45" t="s">
-        <v>795</v>
+        <v>524</v>
       </c>
       <c r="P45">
         <v>3038896</v>
@@ -6509,10 +5690,10 @@
         <v>12103</v>
       </c>
       <c r="U45" t="s">
-        <v>934</v>
+        <v>663</v>
       </c>
       <c r="V45" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.45">
@@ -6537,14 +5718,14 @@
       <c r="I46">
         <v>1929</v>
       </c>
-      <c r="J46" t="s">
-        <v>525</v>
+      <c r="J46">
+        <v>8917</v>
       </c>
       <c r="K46">
         <v>33</v>
       </c>
-      <c r="L46" t="s">
-        <v>658</v>
+      <c r="L46">
+        <v>1914</v>
       </c>
       <c r="M46">
         <v>1914</v>
@@ -6553,7 +5734,7 @@
         <v>65</v>
       </c>
       <c r="O46" t="s">
-        <v>796</v>
+        <v>525</v>
       </c>
       <c r="P46">
         <v>1774769</v>
@@ -6571,10 +5752,10 @@
         <v>12623</v>
       </c>
       <c r="U46" t="s">
-        <v>935</v>
+        <v>664</v>
       </c>
       <c r="V46" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.45">
@@ -6602,14 +5783,14 @@
       <c r="I47">
         <v>2956</v>
       </c>
-      <c r="J47" t="s">
-        <v>526</v>
+      <c r="J47">
+        <v>13453</v>
       </c>
       <c r="K47">
         <v>59</v>
       </c>
-      <c r="L47" t="s">
-        <v>659</v>
+      <c r="L47">
+        <v>3901</v>
       </c>
       <c r="M47">
         <v>3901</v>
@@ -6618,7 +5799,7 @@
         <v>66</v>
       </c>
       <c r="O47" t="s">
-        <v>797</v>
+        <v>526</v>
       </c>
       <c r="P47">
         <v>6757605</v>
@@ -6636,10 +5817,10 @@
         <v>70914</v>
       </c>
       <c r="U47" t="s">
-        <v>936</v>
+        <v>665</v>
       </c>
       <c r="V47" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.45">
@@ -6670,14 +5851,14 @@
       <c r="I48">
         <v>55</v>
       </c>
-      <c r="J48" t="s">
-        <v>527</v>
+      <c r="J48">
+        <v>8713</v>
       </c>
       <c r="K48">
         <v>4</v>
       </c>
-      <c r="L48" t="s">
-        <v>660</v>
+      <c r="L48">
+        <v>46</v>
       </c>
       <c r="M48">
         <v>46</v>
@@ -6686,7 +5867,7 @@
         <v>67</v>
       </c>
       <c r="O48" t="s">
-        <v>798</v>
+        <v>527</v>
       </c>
       <c r="P48">
         <v>41987172</v>
@@ -6704,10 +5885,10 @@
         <v>99437</v>
       </c>
       <c r="U48" t="s">
-        <v>937</v>
+        <v>666</v>
       </c>
       <c r="V48" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
@@ -6738,14 +5919,14 @@
       <c r="I49">
         <v>2078</v>
       </c>
-      <c r="J49" t="s">
-        <v>528</v>
+      <c r="J49">
+        <v>6316</v>
       </c>
       <c r="K49">
         <v>39</v>
       </c>
-      <c r="L49" t="s">
-        <v>661</v>
+      <c r="L49">
+        <v>1308</v>
       </c>
       <c r="M49">
         <v>1308</v>
@@ -6754,7 +5935,7 @@
         <v>68</v>
       </c>
       <c r="O49" t="s">
-        <v>799</v>
+        <v>528</v>
       </c>
       <c r="P49">
         <v>5278479</v>
@@ -6772,10 +5953,10 @@
         <v>12</v>
       </c>
       <c r="U49" t="s">
-        <v>938</v>
+        <v>667</v>
       </c>
       <c r="V49" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
@@ -6800,14 +5981,14 @@
       <c r="I50">
         <v>932</v>
       </c>
-      <c r="J50" t="s">
-        <v>529</v>
+      <c r="J50">
+        <v>12786</v>
       </c>
       <c r="K50">
         <v>55</v>
       </c>
-      <c r="L50" t="s">
-        <v>662</v>
+      <c r="L50">
+        <v>743</v>
       </c>
       <c r="M50">
         <v>743</v>
@@ -6816,7 +5997,7 @@
         <v>69</v>
       </c>
       <c r="O50" t="s">
-        <v>800</v>
+        <v>529</v>
       </c>
       <c r="P50">
         <v>26171816</v>
@@ -6834,10 +6015,10 @@
         <v>151563</v>
       </c>
       <c r="U50" t="s">
-        <v>939</v>
+        <v>668</v>
       </c>
       <c r="V50" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.45">
@@ -6865,14 +6046,14 @@
       <c r="I51">
         <v>446</v>
       </c>
-      <c r="J51" t="s">
-        <v>530</v>
+      <c r="J51">
+        <v>18716</v>
       </c>
       <c r="K51">
         <v>9</v>
       </c>
-      <c r="L51" t="s">
-        <v>663</v>
+      <c r="L51">
+        <v>672</v>
       </c>
       <c r="M51">
         <v>672</v>
@@ -6881,7 +6062,7 @@
         <v>70</v>
       </c>
       <c r="O51" t="s">
-        <v>801</v>
+        <v>530</v>
       </c>
       <c r="P51">
         <v>6729706</v>
@@ -6899,10 +6080,10 @@
         <v>33840</v>
       </c>
       <c r="U51" t="s">
-        <v>940</v>
+        <v>669</v>
       </c>
       <c r="V51" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.45">
@@ -6933,14 +6114,14 @@
       <c r="I52">
         <v>2573</v>
       </c>
-      <c r="J52" t="s">
-        <v>531</v>
+      <c r="J52">
+        <v>20725</v>
       </c>
       <c r="K52">
         <v>87</v>
       </c>
-      <c r="L52" t="s">
-        <v>664</v>
+      <c r="L52">
+        <v>2159</v>
       </c>
       <c r="M52">
         <v>2159</v>
@@ -6949,7 +6130,7 @@
         <v>71</v>
       </c>
       <c r="O52" t="s">
-        <v>802</v>
+        <v>531</v>
       </c>
       <c r="P52">
         <v>2530744</v>
@@ -6967,10 +6148,10 @@
         <v>6801</v>
       </c>
       <c r="U52" t="s">
-        <v>941</v>
+        <v>670</v>
       </c>
       <c r="V52" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.45">
@@ -6992,17 +6173,14 @@
       <c r="H53">
         <v>481401</v>
       </c>
-      <c r="J53" t="s">
-        <v>532</v>
-      </c>
-      <c r="L53" t="s">
-        <v>665</v>
+      <c r="J53">
+        <v>6476</v>
       </c>
       <c r="N53" t="s">
         <v>72</v>
       </c>
       <c r="O53" t="s">
-        <v>803</v>
+        <v>532</v>
       </c>
       <c r="P53">
         <v>8350575</v>
@@ -7020,10 +6198,10 @@
         <v>43969</v>
       </c>
       <c r="U53" t="s">
-        <v>942</v>
+        <v>671</v>
       </c>
       <c r="V53" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.45">
@@ -7051,14 +6229,14 @@
       <c r="I54">
         <v>232</v>
       </c>
-      <c r="J54" t="s">
-        <v>533</v>
+      <c r="J54">
+        <v>7219</v>
       </c>
       <c r="K54">
         <v>3</v>
       </c>
-      <c r="L54" t="s">
-        <v>666</v>
+      <c r="L54">
+        <v>373</v>
       </c>
       <c r="M54">
         <v>373</v>
@@ -7067,7 +6245,7 @@
         <v>73</v>
       </c>
       <c r="O54" t="s">
-        <v>804</v>
+        <v>533</v>
       </c>
       <c r="P54">
         <v>5367816</v>
@@ -7085,10 +6263,10 @@
         <v>16408</v>
       </c>
       <c r="U54" t="s">
-        <v>943</v>
+        <v>672</v>
       </c>
       <c r="V54" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.45">
@@ -7113,14 +6291,14 @@
       <c r="I55">
         <v>1630</v>
       </c>
-      <c r="J55" t="s">
-        <v>534</v>
+      <c r="J55">
+        <v>17631</v>
       </c>
       <c r="K55">
         <v>48</v>
       </c>
-      <c r="L55" t="s">
-        <v>667</v>
+      <c r="L55">
+        <v>1555</v>
       </c>
       <c r="M55">
         <v>1555</v>
@@ -7129,7 +6307,7 @@
         <v>74</v>
       </c>
       <c r="O55" t="s">
-        <v>805</v>
+        <v>534</v>
       </c>
       <c r="P55">
         <v>10935671</v>
@@ -7147,10 +6325,10 @@
         <v>241757</v>
       </c>
       <c r="U55" t="s">
-        <v>944</v>
+        <v>673</v>
       </c>
       <c r="V55" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
@@ -7181,14 +6359,14 @@
       <c r="I56">
         <v>44</v>
       </c>
-      <c r="J56" t="s">
-        <v>535</v>
+      <c r="J56">
+        <v>16193</v>
       </c>
       <c r="K56">
         <v>2</v>
       </c>
-      <c r="L56" t="s">
-        <v>668</v>
+      <c r="L56">
+        <v>101</v>
       </c>
       <c r="M56">
         <v>101</v>
@@ -7197,7 +6375,7 @@
         <v>75</v>
       </c>
       <c r="O56" t="s">
-        <v>806</v>
+        <v>535</v>
       </c>
       <c r="P56">
         <v>4488153</v>
@@ -7215,10 +6393,10 @@
         <v>10058</v>
       </c>
       <c r="U56" t="s">
-        <v>945</v>
+        <v>674</v>
       </c>
       <c r="V56" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
@@ -7246,14 +6424,14 @@
       <c r="I57">
         <v>39</v>
       </c>
-      <c r="J57" t="s">
-        <v>536</v>
+      <c r="J57">
+        <v>2448</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
-      <c r="L57" t="s">
-        <v>669</v>
+      <c r="L57">
+        <v>35</v>
       </c>
       <c r="M57">
         <v>35</v>
@@ -7262,7 +6440,7 @@
         <v>76</v>
       </c>
       <c r="O57" t="s">
-        <v>807</v>
+        <v>536</v>
       </c>
       <c r="P57">
         <v>2380000</v>
@@ -7280,10 +6458,10 @@
         <v>12990</v>
       </c>
       <c r="U57" t="s">
-        <v>946</v>
+        <v>675</v>
       </c>
       <c r="V57" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
@@ -7311,14 +6489,14 @@
       <c r="I58">
         <v>1459</v>
       </c>
-      <c r="J58" t="s">
-        <v>537</v>
+      <c r="J58">
+        <v>12620</v>
       </c>
       <c r="K58">
         <v>14</v>
       </c>
-      <c r="L58" t="s">
-        <v>670</v>
+      <c r="L58">
+        <v>746</v>
       </c>
       <c r="M58">
         <v>746</v>
@@ -7327,7 +6505,7 @@
         <v>77</v>
       </c>
       <c r="O58" t="s">
-        <v>808</v>
+        <v>537</v>
       </c>
       <c r="P58">
         <v>4767787</v>
@@ -7345,10 +6523,10 @@
         <v>5575</v>
       </c>
       <c r="U58" t="s">
-        <v>947</v>
+        <v>676</v>
       </c>
       <c r="V58" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
@@ -7379,14 +6557,14 @@
       <c r="I59">
         <v>1911</v>
       </c>
-      <c r="J59" t="s">
-        <v>538</v>
+      <c r="J59">
+        <v>8628</v>
       </c>
       <c r="K59">
         <v>14</v>
       </c>
-      <c r="L59" t="s">
-        <v>671</v>
+      <c r="L59">
+        <v>896</v>
       </c>
       <c r="M59">
         <v>896</v>
@@ -7395,7 +6573,7 @@
         <v>78</v>
       </c>
       <c r="O59" t="s">
-        <v>809</v>
+        <v>538</v>
       </c>
       <c r="P59">
         <v>3419381</v>
@@ -7413,10 +6591,10 @@
         <v>5545</v>
       </c>
       <c r="U59" t="s">
-        <v>948</v>
+        <v>677</v>
       </c>
       <c r="V59" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
@@ -7444,11 +6622,11 @@
       <c r="I60">
         <v>128</v>
       </c>
-      <c r="J60" t="s">
-        <v>539</v>
-      </c>
-      <c r="L60" t="s">
-        <v>672</v>
+      <c r="J60">
+        <v>6053</v>
+      </c>
+      <c r="L60">
+        <v>125</v>
       </c>
       <c r="M60">
         <v>125</v>
@@ -7457,7 +6635,7 @@
         <v>79</v>
       </c>
       <c r="O60" t="s">
-        <v>810</v>
+        <v>539</v>
       </c>
       <c r="P60">
         <v>6234761</v>
@@ -7475,10 +6653,10 @@
         <v>19405</v>
       </c>
       <c r="U60" t="s">
-        <v>949</v>
+        <v>678</v>
       </c>
       <c r="V60" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.45">
@@ -7509,11 +6687,11 @@
       <c r="I61">
         <v>1497</v>
       </c>
-      <c r="J61" t="s">
-        <v>540</v>
-      </c>
-      <c r="L61" t="s">
-        <v>673</v>
+      <c r="J61">
+        <v>5209</v>
+      </c>
+      <c r="L61">
+        <v>1646</v>
       </c>
       <c r="M61">
         <v>1646</v>
@@ -7522,7 +6700,7 @@
         <v>80</v>
       </c>
       <c r="O61" t="s">
-        <v>811</v>
+        <v>540</v>
       </c>
       <c r="P61">
         <v>7207797</v>
@@ -7540,10 +6718,10 @@
         <v>8782</v>
       </c>
       <c r="U61" t="s">
-        <v>950</v>
+        <v>679</v>
       </c>
       <c r="V61" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
@@ -7571,14 +6749,14 @@
       <c r="I62">
         <v>654</v>
       </c>
-      <c r="J62" t="s">
-        <v>541</v>
+      <c r="J62">
+        <v>9755</v>
       </c>
       <c r="K62">
         <v>50</v>
       </c>
-      <c r="L62" t="s">
-        <v>674</v>
+      <c r="L62">
+        <v>486</v>
       </c>
       <c r="M62">
         <v>486</v>
@@ -7587,7 +6765,7 @@
         <v>81</v>
       </c>
       <c r="O62" t="s">
-        <v>812</v>
+        <v>541</v>
       </c>
       <c r="P62">
         <v>5196072</v>
@@ -7605,10 +6783,10 @@
         <v>46577</v>
       </c>
       <c r="U62" t="s">
-        <v>951</v>
+        <v>680</v>
       </c>
       <c r="V62" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
@@ -7639,14 +6817,14 @@
       <c r="I63">
         <v>542</v>
       </c>
-      <c r="J63" t="s">
-        <v>542</v>
+      <c r="J63">
+        <v>2654</v>
       </c>
       <c r="K63">
         <v>2</v>
       </c>
-      <c r="L63" t="s">
-        <v>675</v>
+      <c r="L63">
+        <v>346</v>
       </c>
       <c r="M63">
         <v>346</v>
@@ -7655,7 +6833,7 @@
         <v>82</v>
       </c>
       <c r="O63" t="s">
-        <v>813</v>
+        <v>542</v>
       </c>
       <c r="P63">
         <v>8819556</v>
@@ -7673,10 +6851,10 @@
         <v>4111</v>
       </c>
       <c r="U63" t="s">
-        <v>952</v>
+        <v>681</v>
       </c>
       <c r="V63" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
@@ -7707,11 +6885,11 @@
       <c r="I64">
         <v>465</v>
       </c>
-      <c r="J64" t="s">
-        <v>543</v>
-      </c>
-      <c r="L64" t="s">
-        <v>676</v>
+      <c r="J64">
+        <v>4041</v>
+      </c>
+      <c r="L64">
+        <v>259</v>
       </c>
       <c r="M64">
         <v>259</v>
@@ -7720,7 +6898,7 @@
         <v>83</v>
       </c>
       <c r="O64" t="s">
-        <v>814</v>
+        <v>543</v>
       </c>
       <c r="P64">
         <v>11859802</v>
@@ -7738,10 +6916,10 @@
         <v>21593</v>
       </c>
       <c r="U64" t="s">
-        <v>953</v>
+        <v>682</v>
       </c>
       <c r="V64" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.45">
@@ -7766,14 +6944,14 @@
       <c r="I65">
         <v>1379</v>
       </c>
-      <c r="J65" t="s">
-        <v>544</v>
+      <c r="J65">
+        <v>4636</v>
       </c>
       <c r="K65">
         <v>19</v>
       </c>
-      <c r="L65" t="s">
-        <v>677</v>
+      <c r="L65">
+        <v>2453</v>
       </c>
       <c r="M65">
         <v>2453</v>
@@ -7782,7 +6960,7 @@
         <v>84</v>
       </c>
       <c r="O65" t="s">
-        <v>815</v>
+        <v>544</v>
       </c>
       <c r="P65">
         <v>1586055</v>
@@ -7800,10 +6978,10 @@
         <v>13839</v>
       </c>
       <c r="U65" t="s">
-        <v>954</v>
+        <v>683</v>
       </c>
       <c r="V65" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.45">
@@ -7834,14 +7012,14 @@
       <c r="I66">
         <v>1973</v>
       </c>
-      <c r="J66" t="s">
-        <v>545</v>
+      <c r="J66">
+        <v>4965</v>
       </c>
       <c r="K66">
         <v>19</v>
       </c>
-      <c r="L66" t="s">
-        <v>678</v>
+      <c r="L66">
+        <v>2627</v>
       </c>
       <c r="M66">
         <v>2627</v>
@@ -7850,7 +7028,7 @@
         <v>85</v>
       </c>
       <c r="O66" t="s">
-        <v>816</v>
+        <v>545</v>
       </c>
       <c r="P66">
         <v>3207088</v>
@@ -7868,10 +7046,10 @@
         <v>492</v>
       </c>
       <c r="U66" t="s">
-        <v>955</v>
+        <v>684</v>
       </c>
       <c r="V66" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.45">
@@ -7899,14 +7077,14 @@
       <c r="I67">
         <v>33</v>
       </c>
-      <c r="J67" t="s">
-        <v>546</v>
+      <c r="J67">
+        <v>4096</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
-      <c r="L67" t="s">
-        <v>679</v>
+      <c r="L67">
+        <v>294</v>
       </c>
       <c r="M67">
         <v>294</v>
@@ -7915,7 +7093,7 @@
         <v>86</v>
       </c>
       <c r="O67" t="s">
-        <v>817</v>
+        <v>546</v>
       </c>
       <c r="P67">
         <v>6374064</v>
@@ -7933,10 +7111,10 @@
         <v>237136</v>
       </c>
       <c r="U67" t="s">
-        <v>956</v>
+        <v>685</v>
       </c>
       <c r="V67" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.45">
@@ -7964,14 +7142,14 @@
       <c r="I68">
         <v>718</v>
       </c>
-      <c r="J68" t="s">
-        <v>547</v>
+      <c r="J68">
+        <v>17263</v>
       </c>
       <c r="K68">
         <v>39</v>
       </c>
-      <c r="L68" t="s">
-        <v>680</v>
+      <c r="L68">
+        <v>599</v>
       </c>
       <c r="M68">
         <v>599</v>
@@ -7980,7 +7158,7 @@
         <v>87</v>
       </c>
       <c r="O68" t="s">
-        <v>818</v>
+        <v>547</v>
       </c>
       <c r="P68">
         <v>16223309</v>
@@ -7998,10 +7176,10 @@
         <v>385142</v>
       </c>
       <c r="U68" t="s">
-        <v>957</v>
+        <v>686</v>
       </c>
       <c r="V68" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">
@@ -8029,14 +7207,14 @@
       <c r="I69">
         <v>2515</v>
       </c>
-      <c r="J69" t="s">
-        <v>548</v>
+      <c r="J69">
+        <v>1258</v>
       </c>
       <c r="K69">
         <v>16</v>
       </c>
-      <c r="L69" t="s">
-        <v>681</v>
+      <c r="L69">
+        <v>6616</v>
       </c>
       <c r="M69">
         <v>6616</v>
@@ -8045,7 +7223,7 @@
         <v>88</v>
       </c>
       <c r="O69" t="s">
-        <v>819</v>
+        <v>548</v>
       </c>
       <c r="P69">
         <v>4662652</v>
@@ -8063,10 +7241,10 @@
         <v>13034</v>
       </c>
       <c r="U69" t="s">
-        <v>958</v>
+        <v>687</v>
       </c>
       <c r="V69" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.45">
@@ -8094,14 +7272,14 @@
       <c r="I70">
         <v>1339</v>
       </c>
-      <c r="J70" t="s">
-        <v>549</v>
+      <c r="J70">
+        <v>4556</v>
       </c>
       <c r="K70">
         <v>3</v>
       </c>
-      <c r="L70" t="s">
-        <v>682</v>
+      <c r="L70">
+        <v>1362</v>
       </c>
       <c r="M70">
         <v>1362</v>
@@ -8110,7 +7288,7 @@
         <v>89</v>
       </c>
       <c r="O70" t="s">
-        <v>820</v>
+        <v>549</v>
       </c>
       <c r="P70">
         <v>2119238</v>
@@ -8128,10 +7306,10 @@
         <v>6177</v>
       </c>
       <c r="U70" t="s">
-        <v>959</v>
+        <v>688</v>
       </c>
       <c r="V70" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.45">
@@ -8162,14 +7340,14 @@
       <c r="I71">
         <v>1209</v>
       </c>
-      <c r="J71" t="s">
-        <v>550</v>
+      <c r="J71">
+        <v>6732</v>
       </c>
       <c r="K71">
         <v>19</v>
       </c>
-      <c r="L71" t="s">
-        <v>683</v>
+      <c r="L71">
+        <v>1195</v>
       </c>
       <c r="M71">
         <v>1195</v>
@@ -8178,7 +7356,7 @@
         <v>90</v>
       </c>
       <c r="O71" t="s">
-        <v>821</v>
+        <v>550</v>
       </c>
       <c r="P71">
         <v>1392707</v>
@@ -8196,10 +7374,10 @@
         <v>3502</v>
       </c>
       <c r="U71" t="s">
-        <v>960</v>
+        <v>689</v>
       </c>
       <c r="V71" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.45">
@@ -8230,11 +7408,11 @@
       <c r="I72">
         <v>48</v>
       </c>
-      <c r="J72" t="s">
-        <v>551</v>
-      </c>
-      <c r="L72" t="s">
-        <v>684</v>
+      <c r="J72">
+        <v>1389</v>
+      </c>
+      <c r="L72">
+        <v>65</v>
       </c>
       <c r="M72">
         <v>65</v>
@@ -8243,7 +7421,7 @@
         <v>91</v>
       </c>
       <c r="O72" t="s">
-        <v>822</v>
+        <v>551</v>
       </c>
       <c r="P72">
         <v>2574524</v>
@@ -8261,10 +7439,10 @@
         <v>4846</v>
       </c>
       <c r="U72" t="s">
-        <v>961</v>
+        <v>690</v>
       </c>
       <c r="V72" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.45">
@@ -8289,14 +7467,14 @@
       <c r="I73">
         <v>896</v>
       </c>
-      <c r="J73" t="s">
-        <v>552</v>
+      <c r="J73">
+        <v>5299</v>
       </c>
       <c r="K73">
         <v>22</v>
       </c>
-      <c r="L73" t="s">
-        <v>685</v>
+      <c r="L73">
+        <v>461</v>
       </c>
       <c r="M73">
         <v>461</v>
@@ -8305,7 +7483,7 @@
         <v>92</v>
       </c>
       <c r="O73" t="s">
-        <v>823</v>
+        <v>552</v>
       </c>
       <c r="P73">
         <v>408535</v>
@@ -8323,10 +7501,10 @@
         <v>5965</v>
       </c>
       <c r="U73" t="s">
-        <v>962</v>
+        <v>691</v>
       </c>
       <c r="V73" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.45">
@@ -8354,14 +7532,14 @@
       <c r="I74">
         <v>255</v>
       </c>
-      <c r="J74" t="s">
-        <v>553</v>
+      <c r="J74">
+        <v>5116</v>
       </c>
       <c r="K74">
         <v>7</v>
       </c>
-      <c r="L74" t="s">
-        <v>686</v>
+      <c r="L74">
+        <v>508</v>
       </c>
       <c r="M74">
         <v>508</v>
@@ -8370,7 +7548,7 @@
         <v>93</v>
       </c>
       <c r="O74" t="s">
-        <v>824</v>
+        <v>553</v>
       </c>
       <c r="P74">
         <v>3712030</v>
@@ -8388,10 +7566,10 @@
         <v>35853</v>
       </c>
       <c r="U74" t="s">
-        <v>963</v>
+        <v>692</v>
       </c>
       <c r="V74" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.45">
@@ -8422,11 +7600,11 @@
       <c r="I75">
         <v>76</v>
       </c>
-      <c r="J75" t="s">
-        <v>554</v>
-      </c>
-      <c r="L75" t="s">
-        <v>687</v>
+      <c r="J75">
+        <v>605</v>
+      </c>
+      <c r="L75">
+        <v>126</v>
       </c>
       <c r="M75">
         <v>126</v>
@@ -8435,7 +7613,7 @@
         <v>94</v>
       </c>
       <c r="O75" t="s">
-        <v>825</v>
+        <v>554</v>
       </c>
       <c r="P75">
         <v>4708867</v>
@@ -8453,10 +7631,10 @@
         <v>4704</v>
       </c>
       <c r="U75" t="s">
-        <v>964</v>
+        <v>693</v>
       </c>
       <c r="V75" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.45">
@@ -8481,17 +7659,14 @@
       <c r="H76">
         <v>208912</v>
       </c>
-      <c r="J76" t="s">
-        <v>555</v>
-      </c>
-      <c r="L76" t="s">
-        <v>688</v>
+      <c r="J76">
+        <v>3647</v>
       </c>
       <c r="N76" t="s">
         <v>95</v>
       </c>
       <c r="O76" t="s">
-        <v>826</v>
+        <v>555</v>
       </c>
       <c r="P76">
         <v>720260</v>
@@ -8509,10 +7684,10 @@
         <v>7129</v>
       </c>
       <c r="U76" t="s">
-        <v>965</v>
+        <v>694</v>
       </c>
       <c r="V76" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.45">
@@ -8540,14 +7715,14 @@
       <c r="I77">
         <v>295</v>
       </c>
-      <c r="J77" t="s">
-        <v>556</v>
+      <c r="J77">
+        <v>2695</v>
       </c>
       <c r="K77">
         <v>5</v>
       </c>
-      <c r="L77" t="s">
-        <v>689</v>
+      <c r="L77">
+        <v>309</v>
       </c>
       <c r="M77">
         <v>309</v>
@@ -8556,7 +7731,7 @@
         <v>96</v>
       </c>
       <c r="O77" t="s">
-        <v>827</v>
+        <v>556</v>
       </c>
       <c r="P77">
         <v>6552979</v>
@@ -8574,10 +7749,10 @@
         <v>67104</v>
       </c>
       <c r="U77" t="s">
-        <v>966</v>
+        <v>695</v>
       </c>
       <c r="V77" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.45">
@@ -8608,14 +7783,14 @@
       <c r="I78">
         <v>168</v>
       </c>
-      <c r="J78" t="s">
-        <v>557</v>
+      <c r="J78">
+        <v>5797</v>
       </c>
       <c r="K78">
         <v>11</v>
       </c>
-      <c r="L78" t="s">
-        <v>690</v>
+      <c r="L78">
+        <v>116</v>
       </c>
       <c r="M78">
         <v>116</v>
@@ -8624,7 +7799,7 @@
         <v>97</v>
       </c>
       <c r="O78" t="s">
-        <v>828</v>
+        <v>557</v>
       </c>
       <c r="P78">
         <v>14082920</v>
@@ -8642,10 +7817,10 @@
         <v>292376</v>
       </c>
       <c r="U78" t="s">
-        <v>967</v>
+        <v>696</v>
       </c>
       <c r="V78" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.45">
@@ -8676,20 +7851,17 @@
       <c r="I79">
         <v>354</v>
       </c>
-      <c r="J79" t="s">
-        <v>558</v>
+      <c r="J79">
+        <v>861</v>
       </c>
       <c r="K79">
         <v>10</v>
       </c>
-      <c r="L79" t="s">
-        <v>691</v>
-      </c>
       <c r="N79" t="s">
         <v>98</v>
       </c>
       <c r="O79" t="s">
-        <v>829</v>
+        <v>558</v>
       </c>
       <c r="P79">
         <v>7769255</v>
@@ -8707,10 +7879,10 @@
         <v>15809</v>
       </c>
       <c r="U79" t="s">
-        <v>968</v>
+        <v>697</v>
       </c>
       <c r="V79" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
@@ -8738,14 +7910,14 @@
       <c r="I80">
         <v>69</v>
       </c>
-      <c r="J80" t="s">
-        <v>559</v>
+      <c r="J80">
+        <v>2605</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
-      <c r="L80" t="s">
-        <v>692</v>
+      <c r="L80">
+        <v>97</v>
       </c>
       <c r="M80">
         <v>97</v>
@@ -8754,7 +7926,7 @@
         <v>99</v>
       </c>
       <c r="O80" t="s">
-        <v>830</v>
+        <v>559</v>
       </c>
       <c r="P80">
         <v>1436823</v>
@@ -8772,10 +7944,10 @@
         <v>10729</v>
       </c>
       <c r="U80" t="s">
-        <v>969</v>
+        <v>698</v>
       </c>
       <c r="V80" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.45">
@@ -8800,17 +7972,14 @@
       <c r="H81">
         <v>178050</v>
       </c>
-      <c r="J81" t="s">
-        <v>560</v>
-      </c>
-      <c r="L81" t="s">
-        <v>693</v>
+      <c r="J81">
+        <v>2367</v>
       </c>
       <c r="N81" t="s">
         <v>100</v>
       </c>
       <c r="O81" t="s">
-        <v>831</v>
+        <v>560</v>
       </c>
       <c r="P81">
         <v>606699</v>
@@ -8828,10 +7997,10 @@
         <v>2729</v>
       </c>
       <c r="U81" t="s">
-        <v>970</v>
+        <v>699</v>
       </c>
       <c r="V81" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.45">
@@ -8859,14 +8028,14 @@
       <c r="I82">
         <v>594</v>
       </c>
-      <c r="J82" t="s">
-        <v>561</v>
+      <c r="J82">
+        <v>2668</v>
       </c>
       <c r="K82">
         <v>15</v>
       </c>
-      <c r="L82" t="s">
-        <v>694</v>
+      <c r="L82">
+        <v>984</v>
       </c>
       <c r="M82">
         <v>984</v>
@@ -8875,7 +8044,7 @@
         <v>101</v>
       </c>
       <c r="O82" t="s">
-        <v>832</v>
+        <v>561</v>
       </c>
       <c r="P82">
         <v>1723996</v>
@@ -8893,10 +8062,10 @@
         <v>8344</v>
       </c>
       <c r="U82" t="s">
-        <v>971</v>
+        <v>700</v>
       </c>
       <c r="V82" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.45">
@@ -8924,14 +8093,14 @@
       <c r="I83">
         <v>1203</v>
       </c>
-      <c r="J83" t="s">
-        <v>562</v>
+      <c r="J83">
+        <v>2706</v>
       </c>
       <c r="K83">
         <v>6</v>
       </c>
-      <c r="L83" t="s">
-        <v>695</v>
+      <c r="L83">
+        <v>452</v>
       </c>
       <c r="M83">
         <v>452</v>
@@ -8940,7 +8109,7 @@
         <v>102</v>
       </c>
       <c r="O83" t="s">
-        <v>833</v>
+        <v>562</v>
       </c>
       <c r="P83">
         <v>1626651</v>
@@ -8958,10 +8127,10 @@
         <v>4632</v>
       </c>
       <c r="U83" t="s">
-        <v>972</v>
+        <v>701</v>
       </c>
       <c r="V83" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.45">
@@ -8992,14 +8161,14 @@
       <c r="I84">
         <v>747</v>
       </c>
-      <c r="J84" t="s">
-        <v>563</v>
+      <c r="J84">
+        <v>1352</v>
       </c>
       <c r="K84">
         <v>1</v>
       </c>
-      <c r="L84" t="s">
-        <v>696</v>
+      <c r="L84">
+        <v>645</v>
       </c>
       <c r="M84">
         <v>645</v>
@@ -9008,7 +8177,7 @@
         <v>103</v>
       </c>
       <c r="O84" t="s">
-        <v>834</v>
+        <v>563</v>
       </c>
       <c r="P84">
         <v>1364994</v>
@@ -9026,10 +8195,10 @@
         <v>3284</v>
       </c>
       <c r="U84" t="s">
-        <v>973</v>
+        <v>702</v>
       </c>
       <c r="V84" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
@@ -9057,14 +8226,14 @@
       <c r="I85">
         <v>32</v>
       </c>
-      <c r="J85" t="s">
-        <v>564</v>
+      <c r="J85">
+        <v>1912</v>
       </c>
       <c r="K85">
         <v>2</v>
       </c>
-      <c r="L85" t="s">
-        <v>697</v>
+      <c r="L85">
+        <v>255</v>
       </c>
       <c r="M85">
         <v>255</v>
@@ -9073,7 +8242,7 @@
         <v>104</v>
       </c>
       <c r="O85" t="s">
-        <v>835</v>
+        <v>564</v>
       </c>
       <c r="P85">
         <v>3644423</v>
@@ -9091,10 +8260,10 @@
         <v>54234</v>
       </c>
       <c r="U85" t="s">
-        <v>974</v>
+        <v>703</v>
       </c>
       <c r="V85" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.45">
@@ -9122,17 +8291,14 @@
       <c r="I86">
         <v>802</v>
       </c>
-      <c r="J86" t="s">
-        <v>565</v>
-      </c>
-      <c r="L86" t="s">
-        <v>698</v>
+      <c r="J86">
+        <v>1062</v>
       </c>
       <c r="N86" t="s">
         <v>105</v>
       </c>
       <c r="O86" t="s">
-        <v>836</v>
+        <v>565</v>
       </c>
       <c r="P86">
         <v>7556125</v>
@@ -9150,10 +8316,10 @@
         <v>20810</v>
       </c>
       <c r="U86" t="s">
-        <v>975</v>
+        <v>704</v>
       </c>
       <c r="V86" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.45">
@@ -9175,17 +8341,14 @@
       <c r="H87">
         <v>130500</v>
       </c>
-      <c r="J87" t="s">
-        <v>566</v>
-      </c>
-      <c r="L87" t="s">
-        <v>699</v>
+      <c r="J87">
+        <v>1914</v>
       </c>
       <c r="N87" t="s">
         <v>106</v>
       </c>
       <c r="O87" t="s">
-        <v>837</v>
+        <v>566</v>
       </c>
       <c r="P87">
         <v>452830</v>
@@ -9203,10 +8366,10 @@
         <v>2161</v>
       </c>
       <c r="U87" t="s">
-        <v>976</v>
+        <v>705</v>
       </c>
       <c r="V87" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.45">
@@ -9234,14 +8397,14 @@
       <c r="I88">
         <v>353</v>
       </c>
-      <c r="J88" t="s">
-        <v>567</v>
+      <c r="J88">
+        <v>4615</v>
       </c>
       <c r="K88">
         <v>8</v>
       </c>
-      <c r="L88" t="s">
-        <v>700</v>
+      <c r="L88">
+        <v>175</v>
       </c>
       <c r="M88">
         <v>175</v>
@@ -9250,7 +8413,7 @@
         <v>107</v>
       </c>
       <c r="O88" t="s">
-        <v>838</v>
+        <v>567</v>
       </c>
       <c r="P88">
         <v>5290317</v>
@@ -9268,10 +8431,10 @@
         <v>29469</v>
       </c>
       <c r="U88" t="s">
-        <v>977</v>
+        <v>706</v>
       </c>
       <c r="V88" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.45">
@@ -9302,11 +8465,11 @@
       <c r="I89">
         <v>120</v>
       </c>
-      <c r="J89" t="s">
-        <v>568</v>
-      </c>
-      <c r="L89" t="s">
-        <v>701</v>
+      <c r="J89">
+        <v>3494</v>
+      </c>
+      <c r="L89">
+        <v>35</v>
       </c>
       <c r="M89">
         <v>35</v>
@@ -9315,7 +8478,7 @@
         <v>108</v>
       </c>
       <c r="O89" t="s">
-        <v>839</v>
+        <v>568</v>
       </c>
       <c r="P89">
         <v>407502</v>
@@ -9333,7 +8496,7 @@
         <v>4761</v>
       </c>
       <c r="V89" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.45">
@@ -9358,17 +8521,14 @@
       <c r="H90">
         <v>127016</v>
       </c>
-      <c r="J90" t="s">
-        <v>569</v>
-      </c>
-      <c r="L90" t="s">
-        <v>702</v>
+      <c r="J90">
+        <v>1150</v>
       </c>
       <c r="N90" t="s">
         <v>109</v>
       </c>
       <c r="O90" t="s">
-        <v>840</v>
+        <v>569</v>
       </c>
       <c r="P90">
         <v>1653422</v>
@@ -9386,10 +8546,10 @@
         <v>2690</v>
       </c>
       <c r="U90" t="s">
-        <v>978</v>
+        <v>707</v>
       </c>
       <c r="V90" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.45">
@@ -9420,14 +8580,14 @@
       <c r="I91">
         <v>200</v>
       </c>
-      <c r="J91" t="s">
-        <v>570</v>
+      <c r="J91">
+        <v>3152</v>
       </c>
       <c r="K91">
         <v>6</v>
       </c>
-      <c r="L91" t="s">
-        <v>703</v>
+      <c r="L91">
+        <v>24</v>
       </c>
       <c r="M91">
         <v>24</v>
@@ -9436,7 +8596,7 @@
         <v>110</v>
       </c>
       <c r="O91" t="s">
-        <v>841</v>
+        <v>570</v>
       </c>
       <c r="P91">
         <v>2058553</v>
@@ -9454,10 +8614,10 @@
         <v>90201</v>
       </c>
       <c r="U91" t="s">
-        <v>979</v>
+        <v>708</v>
       </c>
       <c r="V91" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.45">
@@ -9482,14 +8642,14 @@
       <c r="I92">
         <v>881</v>
       </c>
-      <c r="J92" t="s">
-        <v>571</v>
+      <c r="J92">
+        <v>2302</v>
       </c>
       <c r="K92">
         <v>15</v>
       </c>
-      <c r="L92" t="s">
-        <v>704</v>
+      <c r="L92">
+        <v>532</v>
       </c>
       <c r="M92">
         <v>532</v>
@@ -9498,7 +8658,7 @@
         <v>111</v>
       </c>
       <c r="O92" t="s">
-        <v>842</v>
+        <v>571</v>
       </c>
       <c r="P92">
         <v>24072204</v>
@@ -9516,10 +8676,10 @@
         <v>179078</v>
       </c>
       <c r="U92" t="s">
-        <v>980</v>
+        <v>709</v>
       </c>
       <c r="V92" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.45">
@@ -9544,20 +8704,17 @@
       <c r="H93">
         <v>104348</v>
       </c>
-      <c r="J93" t="s">
-        <v>572</v>
+      <c r="J93">
+        <v>3222</v>
       </c>
       <c r="K93">
         <v>11</v>
       </c>
-      <c r="L93" t="s">
-        <v>705</v>
-      </c>
       <c r="N93" t="s">
         <v>112</v>
       </c>
       <c r="O93" t="s">
-        <v>843</v>
+        <v>572</v>
       </c>
       <c r="P93">
         <v>7396969</v>
@@ -9575,10 +8732,10 @@
         <v>37098</v>
       </c>
       <c r="U93" t="s">
-        <v>981</v>
+        <v>710</v>
       </c>
       <c r="V93" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.45">
@@ -9606,20 +8763,17 @@
       <c r="I94">
         <v>1810</v>
       </c>
-      <c r="J94" t="s">
-        <v>573</v>
+      <c r="J94">
+        <v>1278</v>
       </c>
       <c r="K94">
         <v>22</v>
       </c>
-      <c r="L94" t="s">
-        <v>706</v>
-      </c>
       <c r="N94" t="s">
         <v>113</v>
       </c>
       <c r="O94" t="s">
-        <v>844</v>
+        <v>573</v>
       </c>
       <c r="P94">
         <v>27441696</v>
@@ -9637,10 +8791,10 @@
         <v>285209</v>
       </c>
       <c r="U94" t="s">
-        <v>982</v>
+        <v>711</v>
       </c>
       <c r="V94" t="s">
-        <v>1035</v>
+        <v>764</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.45">
@@ -9665,11 +8819,11 @@
       <c r="I95">
         <v>25</v>
       </c>
-      <c r="J95" t="s">
-        <v>544</v>
-      </c>
-      <c r="L95" t="s">
-        <v>707</v>
+      <c r="J95">
+        <v>4636</v>
+      </c>
+      <c r="L95">
+        <v>58</v>
       </c>
       <c r="M95">
         <v>58</v>
@@ -9678,7 +8832,7 @@
         <v>114</v>
       </c>
       <c r="O95" t="s">
-        <v>845</v>
+        <v>574</v>
       </c>
       <c r="P95">
         <v>2206054000</v>
@@ -9696,10 +8850,10 @@
         <v>3350000</v>
       </c>
       <c r="U95" t="s">
-        <v>983</v>
+        <v>712</v>
       </c>
       <c r="V95" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.45">
@@ -9730,14 +8884,14 @@
       <c r="I96">
         <v>2236</v>
       </c>
-      <c r="J96" t="s">
-        <v>574</v>
+      <c r="J96">
+        <v>85</v>
       </c>
       <c r="K96">
         <v>5</v>
       </c>
-      <c r="L96" t="s">
-        <v>708</v>
+      <c r="L96">
+        <v>1045</v>
       </c>
       <c r="M96">
         <v>1045</v>
@@ -9746,7 +8900,7 @@
         <v>115</v>
       </c>
       <c r="O96" t="s">
-        <v>846</v>
+        <v>575</v>
       </c>
       <c r="P96">
         <v>9306870</v>
@@ -9764,10 +8918,10 @@
         <v>21411</v>
       </c>
       <c r="U96" t="s">
-        <v>984</v>
+        <v>713</v>
       </c>
       <c r="V96" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.45">
@@ -9792,17 +8946,14 @@
       <c r="H97">
         <v>85414</v>
       </c>
-      <c r="J97" t="s">
-        <v>575</v>
-      </c>
-      <c r="L97" t="s">
-        <v>709</v>
+      <c r="J97">
+        <v>1368</v>
       </c>
       <c r="N97" t="s">
         <v>116</v>
       </c>
       <c r="O97" t="s">
-        <v>847</v>
+        <v>576</v>
       </c>
       <c r="P97">
         <v>461201</v>
@@ -9820,10 +8971,10 @@
         <v>723</v>
       </c>
       <c r="U97" t="s">
-        <v>985</v>
+        <v>714</v>
       </c>
       <c r="V97" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.45">
@@ -9851,11 +9002,11 @@
       <c r="I98">
         <v>95</v>
       </c>
-      <c r="J98" t="s">
-        <v>576</v>
-      </c>
-      <c r="L98" t="s">
-        <v>710</v>
+      <c r="J98">
+        <v>231</v>
+      </c>
+      <c r="L98">
+        <v>93</v>
       </c>
       <c r="M98">
         <v>93</v>
@@ -9864,7 +9015,7 @@
         <v>117</v>
       </c>
       <c r="O98" t="s">
-        <v>848</v>
+        <v>577</v>
       </c>
       <c r="P98">
         <v>729253</v>
@@ -9882,10 +9033,10 @@
         <v>796</v>
       </c>
       <c r="U98" t="s">
-        <v>986</v>
+        <v>715</v>
       </c>
       <c r="V98" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.45">
@@ -9916,14 +9067,14 @@
       <c r="I99">
         <v>7</v>
       </c>
-      <c r="J99" t="s">
-        <v>577</v>
+      <c r="J99">
+        <v>1858</v>
       </c>
       <c r="K99">
         <v>3</v>
       </c>
-      <c r="L99" t="s">
-        <v>711</v>
+      <c r="L99">
+        <v>58</v>
       </c>
       <c r="M99">
         <v>58</v>
@@ -9932,7 +9083,7 @@
         <v>118</v>
       </c>
       <c r="O99" t="s">
-        <v>849</v>
+        <v>578</v>
       </c>
       <c r="P99">
         <v>1784832</v>
@@ -9950,10 +9101,10 @@
         <v>2395</v>
       </c>
       <c r="U99" t="s">
-        <v>987</v>
+        <v>716</v>
       </c>
       <c r="V99" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.45">
@@ -9981,14 +9132,14 @@
       <c r="I100">
         <v>11</v>
       </c>
-      <c r="J100" t="s">
-        <v>578</v>
+      <c r="J100">
+        <v>2279</v>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
-      <c r="L100" t="s">
-        <v>712</v>
+      <c r="L100">
+        <v>55</v>
       </c>
       <c r="M100">
         <v>55</v>
@@ -9997,7 +9148,7 @@
         <v>119</v>
       </c>
       <c r="O100" t="s">
-        <v>850</v>
+        <v>579</v>
       </c>
       <c r="P100">
         <v>1087426</v>
@@ -10015,10 +9166,10 @@
         <v>7241</v>
       </c>
       <c r="U100" t="s">
-        <v>988</v>
+        <v>717</v>
       </c>
       <c r="V100" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.45">
@@ -10040,17 +9191,14 @@
       <c r="H101">
         <v>56862</v>
       </c>
-      <c r="J101" t="s">
-        <v>579</v>
-      </c>
-      <c r="L101" t="s">
-        <v>713</v>
+      <c r="J101">
+        <v>1084</v>
       </c>
       <c r="N101" t="s">
         <v>120</v>
       </c>
       <c r="O101" t="s">
-        <v>851</v>
+        <v>580</v>
       </c>
       <c r="P101">
         <v>134945</v>
@@ -10068,10 +9216,10 @@
         <v>226</v>
       </c>
       <c r="U101" t="s">
-        <v>989</v>
+        <v>718</v>
       </c>
       <c r="V101" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.45">
@@ -10099,14 +9247,14 @@
       <c r="I102">
         <v>457</v>
       </c>
-      <c r="J102" t="s">
-        <v>580</v>
+      <c r="J102">
+        <v>1526</v>
       </c>
       <c r="K102">
         <v>13</v>
       </c>
-      <c r="L102" t="s">
-        <v>714</v>
+      <c r="L102">
+        <v>93</v>
       </c>
       <c r="M102">
         <v>93</v>
@@ -10115,7 +9263,7 @@
         <v>121</v>
       </c>
       <c r="O102" t="s">
-        <v>852</v>
+        <v>581</v>
       </c>
       <c r="P102">
         <v>3134137</v>
@@ -10133,10 +9281,10 @@
         <v>44858</v>
       </c>
       <c r="U102" t="s">
-        <v>990</v>
+        <v>719</v>
       </c>
       <c r="V102" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.45">
@@ -10161,17 +9309,14 @@
       <c r="H103">
         <v>50872</v>
       </c>
-      <c r="J103" t="s">
-        <v>581</v>
-      </c>
-      <c r="L103" t="s">
-        <v>715</v>
+      <c r="J103">
+        <v>621</v>
       </c>
       <c r="N103" t="s">
         <v>122</v>
       </c>
       <c r="O103" t="s">
-        <v>853</v>
+        <v>582</v>
       </c>
       <c r="P103">
         <v>1033997</v>
@@ -10189,10 +9334,10 @@
         <v>8390</v>
       </c>
       <c r="U103" t="s">
-        <v>991</v>
+        <v>720</v>
       </c>
       <c r="V103" t="s">
-        <v>1035</v>
+        <v>764</v>
       </c>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.45">
@@ -10220,14 +9365,14 @@
       <c r="I104">
         <v>174</v>
       </c>
-      <c r="J104" t="s">
-        <v>582</v>
+      <c r="J104">
+        <v>1466</v>
       </c>
       <c r="K104">
         <v>2</v>
       </c>
-      <c r="L104" t="s">
-        <v>716</v>
+      <c r="L104">
+        <v>197</v>
       </c>
       <c r="M104">
         <v>197</v>
@@ -10236,7 +9381,7 @@
         <v>123</v>
       </c>
       <c r="O104" t="s">
-        <v>854</v>
+        <v>583</v>
       </c>
       <c r="P104">
         <v>1057104</v>
@@ -10254,10 +9399,10 @@
         <v>4084</v>
       </c>
       <c r="U104" t="s">
-        <v>992</v>
+        <v>721</v>
       </c>
       <c r="V104" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.45">
@@ -10288,14 +9433,14 @@
       <c r="I105">
         <v>513</v>
       </c>
-      <c r="J105" t="s">
-        <v>583</v>
+      <c r="J105">
+        <v>870</v>
       </c>
       <c r="K105">
         <v>9</v>
       </c>
-      <c r="L105" t="s">
-        <v>717</v>
+      <c r="L105">
+        <v>13</v>
       </c>
       <c r="M105">
         <v>13</v>
@@ -10304,7 +9449,7 @@
         <v>124</v>
       </c>
       <c r="O105" t="s">
-        <v>855</v>
+        <v>584</v>
       </c>
       <c r="P105">
         <v>396230</v>
@@ -10322,10 +9467,10 @@
         <v>1898</v>
       </c>
       <c r="U105" t="s">
-        <v>993</v>
+        <v>722</v>
       </c>
       <c r="V105" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.45">
@@ -10350,11 +9495,11 @@
       <c r="I106">
         <v>28</v>
       </c>
-      <c r="J106" t="s">
-        <v>584</v>
-      </c>
-      <c r="L106" t="s">
-        <v>718</v>
+      <c r="J106">
+        <v>2900</v>
+      </c>
+      <c r="L106">
+        <v>10</v>
       </c>
       <c r="M106">
         <v>10</v>
@@ -10363,7 +9508,7 @@
         <v>125</v>
       </c>
       <c r="O106" t="s">
-        <v>856</v>
+        <v>585</v>
       </c>
       <c r="P106">
         <v>1704840</v>
@@ -10381,10 +9526,10 @@
         <v>23108</v>
       </c>
       <c r="U106" t="s">
-        <v>994</v>
+        <v>723</v>
       </c>
       <c r="V106" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.45">
@@ -10412,14 +9557,14 @@
       <c r="I107">
         <v>53</v>
       </c>
-      <c r="J107" t="s">
-        <v>585</v>
+      <c r="J107">
+        <v>773</v>
       </c>
       <c r="K107">
         <v>1</v>
       </c>
-      <c r="L107" t="s">
-        <v>719</v>
+      <c r="L107">
+        <v>85</v>
       </c>
       <c r="M107">
         <v>85</v>
@@ -10428,7 +9573,7 @@
         <v>126</v>
       </c>
       <c r="O107" t="s">
-        <v>857</v>
+        <v>586</v>
       </c>
       <c r="P107">
         <v>1118158</v>
@@ -10446,10 +9591,10 @@
         <v>34720</v>
       </c>
       <c r="U107" t="s">
-        <v>995</v>
+        <v>724</v>
       </c>
       <c r="V107" t="s">
-        <v>1033</v>
+        <v>762</v>
       </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.45">
@@ -10480,14 +9625,14 @@
       <c r="I108">
         <v>123</v>
       </c>
-      <c r="J108" t="s">
-        <v>586</v>
+      <c r="J108">
+        <v>778</v>
       </c>
       <c r="K108">
         <v>6</v>
       </c>
-      <c r="L108" t="s">
-        <v>720</v>
+      <c r="L108">
+        <v>82</v>
       </c>
       <c r="M108">
         <v>82</v>
@@ -10496,7 +9641,7 @@
         <v>127</v>
       </c>
       <c r="O108" t="s">
-        <v>858</v>
+        <v>587</v>
       </c>
       <c r="P108">
         <v>538748</v>
@@ -10514,10 +9659,10 @@
         <v>2047</v>
       </c>
       <c r="U108" t="s">
-        <v>996</v>
+        <v>725</v>
       </c>
       <c r="V108" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.45">
@@ -10545,11 +9690,11 @@
       <c r="I109">
         <v>18</v>
       </c>
-      <c r="J109" t="s">
-        <v>587</v>
-      </c>
-      <c r="L109" t="s">
-        <v>721</v>
+      <c r="J109">
+        <v>378</v>
+      </c>
+      <c r="L109">
+        <v>46</v>
       </c>
       <c r="M109">
         <v>46</v>
@@ -10558,7 +9703,7 @@
         <v>128</v>
       </c>
       <c r="O109" t="s">
-        <v>859</v>
+        <v>588</v>
       </c>
       <c r="P109">
         <v>1732598</v>
@@ -10576,10 +9721,10 @@
         <v>37356</v>
       </c>
       <c r="U109" t="s">
-        <v>997</v>
+        <v>726</v>
       </c>
       <c r="V109" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.45">
@@ -10604,17 +9749,14 @@
       <c r="H110">
         <v>29515</v>
       </c>
-      <c r="J110" t="s">
-        <v>588</v>
-      </c>
-      <c r="L110" t="s">
-        <v>722</v>
+      <c r="J110">
+        <v>183</v>
       </c>
       <c r="N110" t="s">
         <v>129</v>
       </c>
       <c r="O110" t="s">
-        <v>860</v>
+        <v>589</v>
       </c>
       <c r="P110">
         <v>180320</v>
@@ -10632,10 +9774,10 @@
         <v>916</v>
       </c>
       <c r="U110" t="s">
-        <v>998</v>
+        <v>727</v>
       </c>
       <c r="V110" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.45">
@@ -10660,11 +9802,11 @@
       <c r="I111">
         <v>71</v>
       </c>
-      <c r="J111" t="s">
-        <v>589</v>
-      </c>
-      <c r="L111" t="s">
-        <v>723</v>
+      <c r="J111">
+        <v>227</v>
+      </c>
+      <c r="L111">
+        <v>308</v>
       </c>
       <c r="M111">
         <v>308</v>
@@ -10673,7 +9815,7 @@
         <v>130</v>
       </c>
       <c r="O111" t="s">
-        <v>861</v>
+        <v>590</v>
       </c>
       <c r="P111">
         <v>997632</v>
@@ -10691,10 +9833,10 @@
         <v>23544</v>
       </c>
       <c r="U111" t="s">
-        <v>999</v>
+        <v>728</v>
       </c>
       <c r="V111" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.45">
@@ -10719,20 +9861,17 @@
       <c r="I112">
         <v>1047</v>
       </c>
-      <c r="J112" t="s">
-        <v>590</v>
+      <c r="J112">
+        <v>17</v>
       </c>
       <c r="K112">
         <v>1</v>
       </c>
-      <c r="L112" t="s">
-        <v>724</v>
-      </c>
       <c r="N112" t="s">
         <v>131</v>
       </c>
       <c r="O112" t="s">
-        <v>862</v>
+        <v>591</v>
       </c>
       <c r="P112">
         <v>4402770</v>
@@ -10750,10 +9889,10 @@
         <v>9906</v>
       </c>
       <c r="U112" t="s">
-        <v>1000</v>
+        <v>729</v>
       </c>
       <c r="V112" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.45">
@@ -10781,17 +9920,14 @@
       <c r="I113">
         <v>67</v>
       </c>
-      <c r="J113" t="s">
-        <v>591</v>
-      </c>
-      <c r="L113" t="s">
-        <v>725</v>
+      <c r="J113">
+        <v>523</v>
       </c>
       <c r="N113" t="s">
         <v>132</v>
       </c>
       <c r="O113" t="s">
-        <v>863</v>
+        <v>592</v>
       </c>
       <c r="P113">
         <v>184461</v>
@@ -10809,10 +9945,10 @@
         <v>10</v>
       </c>
       <c r="U113" t="s">
-        <v>1001</v>
+        <v>730</v>
       </c>
       <c r="V113" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.45">
@@ -10834,17 +9970,14 @@
       <c r="H114">
         <v>19980</v>
       </c>
-      <c r="J114" t="s">
-        <v>592</v>
-      </c>
-      <c r="L114" t="s">
-        <v>726</v>
+      <c r="J114">
+        <v>1111</v>
       </c>
       <c r="N114" t="s">
         <v>133</v>
       </c>
       <c r="O114" t="s">
-        <v>864</v>
+        <v>593</v>
       </c>
       <c r="P114">
         <v>477075</v>
@@ -10862,10 +9995,10 @@
         <v>8550</v>
       </c>
       <c r="U114" t="s">
-        <v>1002</v>
+        <v>731</v>
       </c>
       <c r="V114" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.45">
@@ -10890,17 +10023,14 @@
       <c r="I115">
         <v>11</v>
       </c>
-      <c r="J115" t="s">
-        <v>593</v>
-      </c>
-      <c r="L115" t="s">
-        <v>727</v>
+      <c r="J115">
+        <v>842</v>
       </c>
       <c r="N115" t="s">
         <v>134</v>
       </c>
       <c r="O115" t="s">
-        <v>865</v>
+        <v>594</v>
       </c>
       <c r="P115">
         <v>15091281</v>
@@ -10918,10 +10048,10 @@
         <v>240846</v>
       </c>
       <c r="U115" t="s">
-        <v>1003</v>
+        <v>732</v>
       </c>
       <c r="V115" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.45">
@@ -10949,11 +10079,11 @@
       <c r="I116">
         <v>16</v>
       </c>
-      <c r="J116" t="s">
-        <v>594</v>
-      </c>
-      <c r="L116" t="s">
-        <v>728</v>
+      <c r="J116">
+        <v>166</v>
+      </c>
+      <c r="L116">
+        <v>28</v>
       </c>
       <c r="M116">
         <v>28</v>
@@ -10962,7 +10092,7 @@
         <v>135</v>
       </c>
       <c r="O116" t="s">
-        <v>866</v>
+        <v>595</v>
       </c>
       <c r="P116">
         <v>155908</v>
@@ -10980,10 +10110,10 @@
         <v>116</v>
       </c>
       <c r="U116" t="s">
-        <v>1004</v>
+        <v>733</v>
       </c>
       <c r="V116" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.45">
@@ -11005,17 +10135,14 @@
       <c r="H117">
         <v>15391</v>
       </c>
-      <c r="J117" t="s">
-        <v>595</v>
-      </c>
-      <c r="L117" t="s">
-        <v>729</v>
+      <c r="J117">
+        <v>79</v>
       </c>
       <c r="N117" t="s">
         <v>136</v>
       </c>
       <c r="O117" t="s">
-        <v>867</v>
+        <v>596</v>
       </c>
       <c r="P117">
         <v>1633952</v>
@@ -11033,10 +10160,10 @@
         <v>1155</v>
       </c>
       <c r="U117" t="s">
-        <v>1005</v>
+        <v>734</v>
       </c>
       <c r="V117" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.45">
@@ -11064,11 +10191,11 @@
       <c r="I118">
         <v>3</v>
       </c>
-      <c r="J118" t="s">
-        <v>596</v>
-      </c>
-      <c r="L118" t="s">
-        <v>730</v>
+      <c r="J118">
+        <v>130</v>
+      </c>
+      <c r="L118">
+        <v>5</v>
       </c>
       <c r="M118">
         <v>5</v>
@@ -11077,7 +10204,7 @@
         <v>137</v>
       </c>
       <c r="O118" t="s">
-        <v>868</v>
+        <v>597</v>
       </c>
       <c r="P118">
         <v>95918</v>
@@ -11095,10 +10222,10 @@
         <v>113</v>
       </c>
       <c r="U118" t="s">
-        <v>1006</v>
+        <v>735</v>
       </c>
       <c r="V118" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.45">
@@ -11123,14 +10250,14 @@
       <c r="I119">
         <v>18</v>
       </c>
-      <c r="J119" t="s">
-        <v>597</v>
+      <c r="J119">
+        <v>548</v>
       </c>
       <c r="K119">
         <v>1</v>
       </c>
-      <c r="L119" t="s">
-        <v>731</v>
+      <c r="L119">
+        <v>14</v>
       </c>
       <c r="M119">
         <v>14</v>
@@ -11139,7 +10266,7 @@
         <v>138</v>
       </c>
       <c r="O119" t="s">
-        <v>869</v>
+        <v>598</v>
       </c>
       <c r="P119">
         <v>405053</v>
@@ -11157,10 +10284,10 @@
         <v>1630</v>
       </c>
       <c r="U119" t="s">
-        <v>1007</v>
+        <v>736</v>
       </c>
       <c r="V119" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.45">
@@ -11185,20 +10312,17 @@
       <c r="I120">
         <v>718</v>
       </c>
-      <c r="J120" t="s">
-        <v>598</v>
+      <c r="J120">
+        <v>204</v>
       </c>
       <c r="K120">
         <v>1</v>
       </c>
-      <c r="L120" t="s">
-        <v>732</v>
-      </c>
       <c r="N120" t="s">
         <v>139</v>
       </c>
       <c r="O120" t="s">
-        <v>870</v>
+        <v>599</v>
       </c>
       <c r="P120">
         <v>788502</v>
@@ -11216,10 +10340,10 @@
         <v>2155</v>
       </c>
       <c r="U120" t="s">
-        <v>1008</v>
+        <v>737</v>
       </c>
       <c r="V120" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.45">
@@ -11241,17 +10365,14 @@
       <c r="H121">
         <v>14395</v>
       </c>
-      <c r="J121" t="s">
-        <v>599</v>
-      </c>
-      <c r="L121" t="s">
-        <v>733</v>
+      <c r="J121">
+        <v>403</v>
       </c>
       <c r="N121" t="s">
         <v>140</v>
       </c>
       <c r="O121" t="s">
-        <v>871</v>
+        <v>600</v>
       </c>
       <c r="P121">
         <v>332954</v>
@@ -11269,10 +10390,10 @@
         <v>6246</v>
       </c>
       <c r="U121" t="s">
-        <v>1009</v>
+        <v>738</v>
       </c>
       <c r="V121" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.45">
@@ -11297,14 +10418,14 @@
       <c r="I122">
         <v>383</v>
       </c>
-      <c r="J122" t="s">
-        <v>600</v>
+      <c r="J122">
+        <v>167</v>
       </c>
       <c r="K122">
         <v>5</v>
       </c>
-      <c r="L122" t="s">
-        <v>734</v>
+      <c r="L122">
+        <v>207</v>
       </c>
       <c r="M122">
         <v>207</v>
@@ -11313,7 +10434,7 @@
         <v>141</v>
       </c>
       <c r="O122" t="s">
-        <v>872</v>
+        <v>601</v>
       </c>
       <c r="P122">
         <v>67229</v>
@@ -11331,10 +10452,10 @@
         <v>174</v>
       </c>
       <c r="U122" t="s">
-        <v>1010</v>
+        <v>739</v>
       </c>
       <c r="V122" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.45">
@@ -11359,11 +10480,11 @@
       <c r="I123">
         <v>5</v>
       </c>
-      <c r="J123" t="s">
-        <v>601</v>
-      </c>
-      <c r="L123" t="s">
-        <v>735</v>
+      <c r="J123">
+        <v>213</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
       </c>
       <c r="M123">
         <v>4</v>
@@ -11372,7 +10493,7 @@
         <v>142</v>
       </c>
       <c r="O123" t="s">
-        <v>873</v>
+        <v>602</v>
       </c>
       <c r="P123">
         <v>8646366</v>
@@ -11390,10 +10511,10 @@
         <v>29448</v>
       </c>
       <c r="U123" t="s">
-        <v>1011</v>
+        <v>740</v>
       </c>
       <c r="V123" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.45">
@@ -11421,17 +10542,14 @@
       <c r="I124">
         <v>27</v>
       </c>
-      <c r="J124" t="s">
-        <v>602</v>
-      </c>
-      <c r="L124" t="s">
-        <v>736</v>
+      <c r="J124">
+        <v>128</v>
       </c>
       <c r="N124" t="s">
         <v>143</v>
       </c>
       <c r="O124" t="s">
-        <v>874</v>
+        <v>603</v>
       </c>
       <c r="P124">
         <v>103751</v>
@@ -11449,10 +10567,10 @@
         <v>889</v>
       </c>
       <c r="U124" t="s">
-        <v>1012</v>
+        <v>741</v>
       </c>
       <c r="V124" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.45">
@@ -11477,17 +10595,14 @@
       <c r="H125">
         <v>11806</v>
       </c>
-      <c r="J125" t="s">
-        <v>603</v>
-      </c>
-      <c r="L125" t="s">
-        <v>737</v>
+      <c r="J125">
+        <v>142</v>
       </c>
       <c r="N125" t="s">
         <v>144</v>
       </c>
       <c r="O125" t="s">
-        <v>875</v>
+        <v>604</v>
       </c>
       <c r="P125">
         <v>389970</v>
@@ -11505,10 +10620,10 @@
         <v>757</v>
       </c>
       <c r="U125" t="s">
-        <v>1013</v>
+        <v>742</v>
       </c>
       <c r="V125" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.45">
@@ -11533,17 +10648,14 @@
       <c r="H126">
         <v>11760</v>
       </c>
-      <c r="J126" t="s">
-        <v>604</v>
-      </c>
-      <c r="L126" t="s">
-        <v>738</v>
+      <c r="J126">
+        <v>33</v>
       </c>
       <c r="N126" t="s">
         <v>145</v>
       </c>
       <c r="O126" t="s">
-        <v>876</v>
+        <v>605</v>
       </c>
       <c r="P126">
         <v>551110</v>
@@ -11561,10 +10673,10 @@
         <v>1103</v>
       </c>
       <c r="U126" t="s">
-        <v>1014</v>
+        <v>743</v>
       </c>
       <c r="V126" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.45">
@@ -11589,17 +10701,14 @@
       <c r="H127">
         <v>9930</v>
       </c>
-      <c r="J127" t="s">
-        <v>605</v>
-      </c>
-      <c r="L127" t="s">
-        <v>739</v>
+      <c r="J127">
+        <v>335</v>
       </c>
       <c r="N127" t="s">
         <v>146</v>
       </c>
       <c r="O127" t="s">
-        <v>877</v>
+        <v>606</v>
       </c>
       <c r="P127">
         <v>207195</v>
@@ -11617,10 +10726,10 @@
         <v>357</v>
       </c>
       <c r="U127" t="s">
-        <v>1015</v>
+        <v>744</v>
       </c>
       <c r="V127" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.45">
@@ -11645,14 +10754,14 @@
       <c r="I128">
         <v>217</v>
       </c>
-      <c r="J128" t="s">
-        <v>606</v>
+      <c r="J128">
+        <v>69</v>
       </c>
       <c r="K128">
         <v>1</v>
       </c>
-      <c r="L128" t="s">
-        <v>740</v>
+      <c r="L128">
+        <v>185</v>
       </c>
       <c r="M128">
         <v>185</v>
@@ -11661,7 +10770,7 @@
         <v>147</v>
       </c>
       <c r="O128" t="s">
-        <v>878</v>
+        <v>607</v>
       </c>
       <c r="P128">
         <v>234948</v>
@@ -11679,10 +10788,10 @@
         <v>1501</v>
       </c>
       <c r="U128" t="s">
-        <v>1016</v>
+        <v>745</v>
       </c>
       <c r="V128" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.45">
@@ -11710,17 +10819,14 @@
       <c r="I129">
         <v>55</v>
       </c>
-      <c r="J129" t="s">
-        <v>607</v>
-      </c>
-      <c r="L129" t="s">
-        <v>741</v>
+      <c r="J129">
+        <v>51</v>
       </c>
       <c r="N129" t="s">
         <v>148</v>
       </c>
       <c r="O129" t="s">
-        <v>879</v>
+        <v>608</v>
       </c>
       <c r="P129">
         <v>129319</v>
@@ -11738,10 +10844,10 @@
         <v>4</v>
       </c>
       <c r="U129" t="s">
-        <v>1017</v>
+        <v>746</v>
       </c>
       <c r="V129" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.45">
@@ -11772,14 +10878,14 @@
       <c r="I130">
         <v>137</v>
       </c>
-      <c r="J130" t="s">
-        <v>608</v>
+      <c r="J130">
+        <v>40</v>
       </c>
       <c r="K130">
         <v>1</v>
       </c>
-      <c r="L130" t="s">
-        <v>742</v>
+      <c r="L130">
+        <v>140</v>
       </c>
       <c r="M130">
         <v>140</v>
@@ -11788,7 +10894,7 @@
         <v>149</v>
       </c>
       <c r="O130" t="s">
-        <v>880</v>
+        <v>609</v>
       </c>
       <c r="P130">
         <v>455355</v>
@@ -11806,10 +10912,10 @@
         <v>5688</v>
       </c>
       <c r="U130" t="s">
-        <v>1018</v>
+        <v>747</v>
       </c>
       <c r="V130" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.45">
@@ -11834,11 +10940,11 @@
       <c r="I131">
         <v>6</v>
       </c>
-      <c r="J131" t="s">
-        <v>609</v>
-      </c>
-      <c r="L131" t="s">
-        <v>743</v>
+      <c r="J131">
+        <v>201</v>
+      </c>
+      <c r="L131">
+        <v>4</v>
       </c>
       <c r="M131">
         <v>4</v>
@@ -11847,7 +10953,7 @@
         <v>150</v>
       </c>
       <c r="O131" t="s">
-        <v>881</v>
+        <v>610</v>
       </c>
       <c r="P131">
         <v>621853</v>
@@ -11865,10 +10971,10 @@
         <v>9294</v>
       </c>
       <c r="U131" t="s">
-        <v>1019</v>
+        <v>748</v>
       </c>
       <c r="V131" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.45">
@@ -11893,17 +10999,14 @@
       <c r="H132">
         <v>5794</v>
       </c>
-      <c r="J132" t="s">
-        <v>610</v>
-      </c>
-      <c r="L132" t="s">
-        <v>744</v>
+      <c r="J132">
+        <v>283</v>
       </c>
       <c r="N132" t="s">
         <v>151</v>
       </c>
       <c r="O132" t="s">
-        <v>882</v>
+        <v>611</v>
       </c>
       <c r="P132">
         <v>284246</v>
@@ -11921,10 +11024,10 @@
         <v>9183</v>
       </c>
       <c r="U132" t="s">
-        <v>1020</v>
+        <v>749</v>
       </c>
       <c r="V132" t="s">
-        <v>1034</v>
+        <v>763</v>
       </c>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.45">
@@ -11949,17 +11052,14 @@
       <c r="H133">
         <v>5428</v>
       </c>
-      <c r="J133" t="s">
-        <v>611</v>
-      </c>
-      <c r="L133" t="s">
-        <v>745</v>
+      <c r="J133">
+        <v>91</v>
       </c>
       <c r="N133" t="s">
         <v>152</v>
       </c>
       <c r="O133" t="s">
-        <v>883</v>
+        <v>612</v>
       </c>
       <c r="P133">
         <v>47100</v>
@@ -11977,10 +11077,10 @@
         <v>3</v>
       </c>
       <c r="U133" t="s">
-        <v>1021</v>
+        <v>750</v>
       </c>
       <c r="V133" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.45">
@@ -12005,17 +11105,14 @@
       <c r="H134">
         <v>5145</v>
       </c>
-      <c r="J134" t="s">
-        <v>612</v>
-      </c>
-      <c r="L134" t="s">
-        <v>746</v>
+      <c r="J134">
+        <v>62</v>
       </c>
       <c r="N134" t="s">
         <v>153</v>
       </c>
       <c r="O134" t="s">
-        <v>884</v>
+        <v>613</v>
       </c>
       <c r="P134">
         <v>86676</v>
@@ -12033,10 +11130,10 @@
         <v>60</v>
       </c>
       <c r="U134" t="s">
-        <v>1022</v>
+        <v>751</v>
       </c>
       <c r="V134" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.45">
@@ -12061,14 +11158,14 @@
       <c r="I135">
         <v>34</v>
       </c>
-      <c r="J135" t="s">
-        <v>613</v>
+      <c r="J135">
+        <v>135</v>
       </c>
       <c r="K135">
         <v>5</v>
       </c>
-      <c r="L135" t="s">
-        <v>747</v>
+      <c r="L135">
+        <v>281</v>
       </c>
       <c r="M135">
         <v>281</v>
@@ -12077,7 +11174,7 @@
         <v>154</v>
       </c>
       <c r="O135" t="s">
-        <v>885</v>
+        <v>614</v>
       </c>
       <c r="P135">
         <v>55663</v>
@@ -12095,10 +11192,10 @@
         <v>579</v>
       </c>
       <c r="U135" t="s">
-        <v>1023</v>
+        <v>752</v>
       </c>
       <c r="V135" t="s">
-        <v>1031</v>
+        <v>760</v>
       </c>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.45">
@@ -12126,11 +11223,11 @@
       <c r="I136">
         <v>44</v>
       </c>
-      <c r="J136" t="s">
-        <v>614</v>
-      </c>
-      <c r="L136" t="s">
-        <v>748</v>
+      <c r="J136">
+        <v>27</v>
+      </c>
+      <c r="L136">
+        <v>4</v>
       </c>
       <c r="M136">
         <v>4</v>
@@ -12139,7 +11236,7 @@
         <v>155</v>
       </c>
       <c r="O136" t="s">
-        <v>886</v>
+        <v>615</v>
       </c>
       <c r="P136">
         <v>5132627</v>
@@ -12157,10 +11254,10 @@
         <v>37830</v>
       </c>
       <c r="U136" t="s">
-        <v>1024</v>
+        <v>753</v>
       </c>
       <c r="V136" t="s">
-        <v>1035</v>
+        <v>764</v>
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.45">
@@ -12188,11 +11285,11 @@
       <c r="I137">
         <v>6</v>
       </c>
-      <c r="J137" t="s">
-        <v>604</v>
-      </c>
-      <c r="L137" t="s">
-        <v>749</v>
+      <c r="J137">
+        <v>33</v>
+      </c>
+      <c r="L137">
+        <v>5</v>
       </c>
       <c r="M137">
         <v>5</v>
@@ -12201,7 +11298,7 @@
         <v>156</v>
       </c>
       <c r="O137" t="s">
-        <v>887</v>
+        <v>616</v>
       </c>
       <c r="P137">
         <v>49980</v>
@@ -12219,10 +11316,10 @@
         <v>120</v>
       </c>
       <c r="U137" t="s">
-        <v>1025</v>
+        <v>754</v>
       </c>
       <c r="V137" t="s">
-        <v>1032</v>
+        <v>761</v>
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.45">
@@ -12247,17 +11344,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138" t="s">
-        <v>615</v>
-      </c>
-      <c r="L138" t="s">
-        <v>750</v>
+      <c r="J138">
+        <v>3</v>
       </c>
       <c r="N138" t="s">
         <v>157</v>
       </c>
       <c r="O138" t="s">
-        <v>888</v>
+        <v>617</v>
       </c>
       <c r="P138">
         <v>1081086</v>
@@ -12275,10 +11369,10 @@
         <v>2265</v>
       </c>
       <c r="U138" t="s">
-        <v>1026</v>
+        <v>755</v>
       </c>
       <c r="V138" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.45">
@@ -12303,17 +11397,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139" t="s">
-        <v>616</v>
-      </c>
-      <c r="L139" t="s">
-        <v>751</v>
+      <c r="J139">
+        <v>0</v>
       </c>
       <c r="N139" t="s">
         <v>158</v>
       </c>
       <c r="O139" t="s">
-        <v>889</v>
+        <v>618</v>
       </c>
       <c r="P139">
         <v>649564</v>
@@ -12331,10 +11422,10 @@
         <v>4123</v>
       </c>
       <c r="U139" t="s">
-        <v>1027</v>
+        <v>756</v>
       </c>
       <c r="V139" t="s">
-        <v>1030</v>
+        <v>759</v>
       </c>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.45">
@@ -12356,17 +11447,14 @@
       <c r="H140">
         <v>3</v>
       </c>
-      <c r="J140" t="s">
-        <v>616</v>
-      </c>
-      <c r="L140" t="s">
-        <v>615</v>
+      <c r="J140">
+        <v>0</v>
       </c>
       <c r="N140" t="s">
         <v>159</v>
       </c>
       <c r="O140" t="s">
-        <v>890</v>
+        <v>619</v>
       </c>
       <c r="P140">
         <v>172316</v>
@@ -12384,14 +11472,15 @@
         <v>3269</v>
       </c>
       <c r="U140" t="s">
-        <v>1028</v>
+        <v>757</v>
       </c>
       <c r="V140" t="s">
-        <v>1035</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>